--- a/examples/for_equinor/for_equinor-monopile/15mw/40m/outputs/monotow_output.xlsx
+++ b/examples/for_equinor/for_equinor-monopile/15mw/40m/outputs/monotow_output.xlsx
@@ -547,7 +547,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[-40.]</t>
+          <t>[-60.]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -914,8 +914,8 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[[0.02982564 0.13219194 0.18251138 0.10121861 0.15617867 0.07984641
-  0.14002551]]</t>
+          <t>[[0.09991069 0.2        0.2        0.2        0.15519489 0.16376774
+  0.128205  ]]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[2.9]</t>
+          <t>[2.5244418]</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[[0.10376699 0.07149052 0.01605918 0.01436043 0.01083654]]</t>
+          <t>[[0.13889523 0.08140412 0.01713781 0.0150955  0.01010139]]</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[10. 10. 10. 10.  6.]</t>
+          <t>[10.    10.    10.    10.     5.999]</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -4399,9 +4399,9 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>[[  0.   0. -70.]
- [  0.   0. -40.]
- [  0.   0. -25.]
+          <t>[[  0.   0. -90.]
+ [  0.   0. -60.]
+ [  0.   0. -35.]
  [  0.   0. -10.]
  [  0.   0.   0.]
  [  0.   0.  10.]
@@ -4524,8 +4524,8 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>[-70.         -60.         -50.         -40.         -35.
- -30.         -25.         -20.         -15.         -10.
+          <t>[-90.         -80.         -70.         -60.         -51.66666667
+ -43.33333333 -35.         -26.66666667 -18.33333333 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
         </is>
@@ -4573,10 +4573,10 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         25641.80265667
- 26386.97697153 28675.25126338 32655.96964616 38591.26669939
- 46880.01192749 58098.78836626 67607.67666409 79133.80234944
- 93148.84708092     0.             0.             0.
+          <t>[    0.             0.             0.         10649.0248982
+ 11433.68047893 13913.64689071 18484.29060266 25921.2568732
+ 37508.26520196 55196.80811561 64659.46441983 75920.48624405
+ 89398.02287441     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -4646,10 +4646,10 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         408895.04657894
- 358832.00706253 309169.72463927 259944.9735049  211222.19496991
- 163098.61556212 115712.26631898  84622.50374015  54016.71506028
-  23984.69667347      0.              0.              0.
+          <t>[     0.              0.              0.         606065.5236982
+ 522520.87758442 439444.75201437 356941.79458363 275206.47150374
+ 194558.23848618 115502.97888821  84492.305674    53928.02600694
+  23893.4954951       0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -4673,8 +4673,8 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>[-70.         -60.         -50.         -40.         -35.
- -30.         -25.         -20.         -15.         -10.
+          <t>[-90.         -80.         -70.         -60.         -51.66666667
+ -43.33333333 -35.         -26.66666667 -18.33333333 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
         </is>
@@ -4722,8 +4722,8 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>[-70.         -60.         -50.         -40.         -35.
- -30.         -25.         -20.         -15.         -10.
+          <t>[-90.         -80.         -70.         -60.         -51.66666667
+ -43.33333333 -35.         -26.66666667 -18.33333333 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
         </is>
@@ -4748,9 +4748,9 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>[0.         0.         0.         0.46567523 0.4787013  0.51850824
- 0.58732305 0.68899556 0.82921383 1.01582234 1.17103251 1.35528475
- 1.57314861 0.         0.         0.         0.         0.
+          <t>[0.         0.         0.         0.19723058 0.21155802 0.25662194
+ 0.33896949 0.47056464 0.67052636 0.96790634 1.12320999 1.30436285
+ 1.51553391 0.         0.         0.         0.         0.
  0.        ]</t>
         </is>
       </c>
@@ -4774,9 +4774,9 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>[0.         0.         0.         0.30962156 0.31828243 0.34474956
- 0.39050366 0.45810442 0.55133377 0.67540741 0.77860468 0.90111167
- 1.04596658 0.         0.         0.         0.         0.
+          <t>[0.         0.         0.         0.13113611 0.14066225 0.17062468
+ 0.22537652 0.31287247 0.44582449 0.64354866 0.7468081  0.86725434
+ 1.0076593  0.         0.         0.         0.         0.
  0.        ]</t>
         </is>
       </c>
@@ -4800,9 +4800,9 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         408783.90920109
- 358714.56516003 309031.93860788 259768.18746945 210978.90359372
- 162746.22283177 115183.42011509  83919.7037073   53075.35671825
+          <t>[     0.              0.              0.         606045.58749872
+ 522497.9397257  439411.00141952 356882.90817242 275092.98807385
+ 194327.81561429 115022.84701532  83845.73531996  53056.07775107
   22716.363445        0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>[  0.   0. -70.]</t>
+          <t>[  0.   0. -90.]</t>
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
@@ -4943,9 +4943,9 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>[0.         0.11764706 0.23529412 0.35294118 0.41176471 0.47058824
- 0.52941176 0.58823529 0.64705882 0.70588235 0.74509804 0.78431373
- 0.82352941 0.8627451  0.90196078 0.94117647 0.96078431 0.98039216
+          <t>[0.         0.0952381  0.19047619 0.28571429 0.36507937 0.44444444
+ 0.52380952 0.6031746  0.68253968 0.76190476 0.79365079 0.82539683
+ 0.85714286 0.88888889 0.92063492 0.95238095 0.96825397 0.98412698
  1.        ]</t>
         </is>
       </c>
@@ -4969,10 +4969,10 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         25641.80265667
- 26386.97697153 28675.25126338 32655.96964616 38591.26669939
- 46880.01192749 58098.78836626 67607.67666409 79133.80234944
- 93148.84708092     0.             0.             0.
+          <t>[    0.             0.             0.         10649.0248982
+ 11433.68047893 13913.64689071 18484.29060266 25921.2568732
+ 37508.26520196 55196.80811561 64659.46441983 75920.48624405
+ 89398.02287441     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -5042,10 +5042,10 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         408895.04657894
- 358832.00706253 309169.72463927 259944.9735049  211222.19496991
- 163098.61556212 115712.26631898  84622.50374015  54016.71506028
-  23984.69667347      0.              0.              0.
+          <t>[     0.              0.              0.         606065.5236982
+ 522520.87758442 439444.75201437 356941.79458363 275206.47150374
+ 194558.23848618 115502.97888821  84492.305674    53928.02600694
+  23893.4954951       0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -5115,10 +5115,10 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         -25641.80265667
- -26386.97697153 -28675.25126338 -32655.96964616 -38591.26669939
- -46880.01192749 -58098.78836626 -67607.67666409 -79133.80234944
- -93148.84708092      0.              0.              0.
+          <t>[     0.              0.              0.         -10649.0248982
+ -11433.68047893 -13913.64689071 -18484.29060266 -25921.2568732
+ -37508.26520196 -55196.80811561 -64659.46441983 -75920.48624405
+ -89398.02287441      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -5142,10 +5142,10 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         408895.04657894
- 358832.00706253 309169.72463927 259944.9735049  211222.19496991
- 163098.61556212 115712.26631898  84622.50374015  54016.71506028
-  23984.69667347      0.              0.              0.
+          <t>[     0.              0.              0.         606065.5236982
+ 522520.87758442 439444.75201437 356941.79458363 275206.47150374
+ 194558.23848618 115502.97888821  84492.305674    53928.02600694
+  23893.4954951       0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[0.08100879 0.15735166 0.14186499 0.12869864 0.11801254 0.10993596]</t>
+          <t>[0.14995535 0.2        0.2        0.17759745 0.15948132 0.14598637]</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -5211,7 +5211,7 @@
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr">
         <is>
-          <t>[0.         0.35294118 0.52941176 0.70588235 0.82352941 0.94117647
+          <t>[0.         0.28571429 0.52380952 0.76190476 0.85714286 0.95238095
  1.        ]</t>
         </is>
       </c>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>[85.]</t>
+          <t>[105.]</t>
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>[0.08100879 0.15735166 0.14186499 0.12869864 0.11801254 0.10993596]</t>
+          <t>[0.14995535 0.2        0.2        0.17759745 0.15948132 0.14598637]</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
@@ -5438,15 +5438,15 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>[[  0.           0.         -70.        ]
+          <t>[[  0.           0.         -90.        ]
+ [  0.           0.         -80.        ]
+ [  0.           0.         -70.        ]
  [  0.           0.         -60.        ]
- [  0.           0.         -50.        ]
- [  0.           0.         -40.        ]
+ [  0.           0.         -51.66666667]
+ [  0.           0.         -43.33333333]
  [  0.           0.         -35.        ]
- [  0.           0.         -30.        ]
- [  0.           0.         -25.        ]
- [  0.           0.         -20.        ]
- [  0.           0.         -15.        ]
+ [  0.           0.         -26.66666667]
+ [  0.           0.         -18.33333333]
  [  0.           0.         -10.        ]
  [  0.           0.          -6.66666667]
  [  0.           0.          -3.33333333]
@@ -5479,10 +5479,10 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>[ 0.         10.         20.         30.         35.         40.
- 45.         50.         55.         60.         63.33333333 66.66666667
- 70.         73.33333333 76.66666667 80.         81.66666667 83.33333333
- 85.        ]</t>
+          <t>[  0.          10.          20.          30.          38.33333333
+  46.66666667  55.          63.33333333  71.66666667  80.
+  83.33333333  86.66666667  90.          93.33333333  96.66666667
+ 100.         101.66666667 103.33333333 105.        ]</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
@@ -5501,7 +5501,7 @@
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
         <is>
-          <t>[0.         0.35294118 0.52941176 0.70588235 0.82352941 0.94117647
+          <t>[0.         0.28571429 0.52380952 0.76190476 0.85714286 0.95238095
  1.        ]</t>
         </is>
       </c>
@@ -5521,7 +5521,7 @@
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr">
         <is>
-          <t>[0.35294118]</t>
+          <t>[0.28571429]</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -5544,9 +5544,9 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>[0.08100879 0.08100879 0.08100879 0.15735166 0.15735166 0.15735166
- 0.14186499 0.14186499 0.14186499 0.12869864 0.12869864 0.12869864
- 0.11801254 0.11801254 0.11801254 0.10993596 0.10993596 0.10993596]</t>
+          <t>[0.14995535 0.14995535 0.14995535 0.2        0.2        0.2
+ 0.2        0.2        0.2        0.17759745 0.17759745 0.17759745
+ 0.15948132 0.15948132 0.15948132 0.14598637 0.14598637 0.14598637]</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[2572616.33098013]</t>
+          <t>[4788847.64928001]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[6061626.50731356]</t>
+          <t>[10999229.32270324]</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[45.69033356]</t>
+          <t>[53.4683633]</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>[6.71844100e+09 6.71844100e+09 6.27377915e+07 0.00000000e+00
+          <t>[1.77217701e+10 1.77217701e+10 1.15487505e+08 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>[1615990.87460076]</t>
+          <t>[1906813.75593395]</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>[4176499.19903658]</t>
+          <t>[4813643.7484258]</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -5915,9 +5915,9 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>[2.70105419 2.70105419 2.70105419 5.20615315 5.20615315 5.20615315
- 4.70114511 4.70114511 4.70114511 4.27053237 4.27053237 4.27053237
- 3.92018084 3.92018084 3.92018084 3.65487499 3.65487499 3.65487499]</t>
+          <t>[4.96516632 4.96516632 4.96516632 6.58854811 6.58854811 6.58854811
+ 6.58854811 6.58854811 6.58854811 5.86392083 5.86392083 5.86392083
+ 5.27547361 5.27547361 5.27547361 4.83569745 4.83569745 4.83569745]</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -5940,9 +5940,9 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>[1.53840405 1.53840405 1.53840405 2.97617823 2.97617823 2.97617823
- 2.68541961 2.68541961 2.68541961 2.43786778 2.43786778 2.43786778
- 2.23670558 2.23670558 2.23670558 2.08452045 2.08452045 2.08452045]</t>
+          <t>[2.83737031 2.83737031 2.83737031 3.77459819 3.77459819 3.77459819
+ 3.77459819 3.77459819 3.77459819 3.3556148  3.3556148  3.3556148
+ 3.016127   3.016127   3.016127   2.76284156 2.76284156 2.76284156]</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -5965,9 +5965,9 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>[1.53840405 1.53840405 1.53840405 2.97617823 2.97617823 2.97617823
- 2.68541961 2.68541961 2.68541961 2.43786778 2.43786778 2.43786778
- 2.23670558 2.23670558 2.23670558 2.08452045 2.08452045 2.08452045]</t>
+          <t>[2.83737031 2.83737031 2.83737031 3.77459819 3.77459819 3.77459819
+ 3.77459819 3.77459819 3.77459819 3.3556148  3.3556148  3.3556148
+ 3.016127   3.016127   3.016127   2.76284156 2.76284156 2.76284156]</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -5990,9 +5990,9 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>[33.22058588 33.22058588 33.22058588 63.0611478  63.0611478  63.0611478
- 57.12064752 57.12064752 57.12064752 52.02530892 52.02530892 52.02530892
- 47.85933326 47.85933326 47.85933326 44.69247506 44.69247506 44.69247506]</t>
+          <t>[60.23110832 60.23110832 60.23110832 79.12846284 79.12846284 79.12846284
+ 79.12846284 79.12846284 79.12846284 70.74170522 70.74170522 70.74170522
+ 63.87361594 63.87361594 63.87361594 58.70711792 58.70711792 58.70711792]</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -6015,9 +6015,9 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>[33.22058588 33.22058588 33.22058588 63.0611478  63.0611478  63.0611478
- 57.12064752 57.12064752 57.12064752 52.02530892 52.02530892 52.02530892
- 47.85933326 47.85933326 47.85933326 44.69247506 44.69247506 44.69247506]</t>
+          <t>[60.23110832 60.23110832 60.23110832 79.12846284 79.12846284 79.12846284
+ 79.12846284 79.12846284 79.12846284 70.74170522 70.74170522 70.74170522
+ 63.87361594 63.87361594 63.87361594 58.70711792 58.70711792 58.70711792]</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -6040,10 +6040,10 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[ 66.44117175  66.44117175  66.44117175 126.1222956  126.1222956
- 126.1222956  114.24129504 114.24129504 114.24129504 104.05061784
- 104.05061784 104.05061784  95.71866653  95.71866653  95.71866653
-  89.38495012  89.38495012  89.38495012]</t>
+          <t>[120.46221664 120.46221664 120.46221664 158.25692568 158.25692568
+ 158.25692568 158.25692568 158.25692568 158.25692568 141.48341044
+ 141.48341044 141.48341044 127.74723188 127.74723188 127.74723188
+ 117.41423584 117.41423584 117.41423584]</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -6142,16 +6142,16 @@
           <t>[[     0.        ]
  [     0.        ]
  [     0.        ]
- [408895.04657894]
- [358832.00706253]
- [309169.72463927]
- [259944.9735049 ]
- [211222.19496991]
- [163098.61556212]
- [115712.26631898]
- [ 84622.50374015]
- [ 54016.71506028]
- [ 23984.69667347]
+ [606065.5236982 ]
+ [522520.87758442]
+ [439444.75201437]
+ [356941.79458363]
+ [275206.47150374]
+ [194558.23848618]
+ [115502.97888821]
+ [ 84492.305674  ]
+ [ 53928.02600694]
+ [ 23893.4954951 ]
  [     0.        ]
  [     0.        ]
  [     0.        ]
@@ -6180,7 +6180,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>[55.]</t>
+          <t>[75.]</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -6238,8 +6238,8 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>[2.919832   2.919832   2.919832   1.46505193 1.46505193 1.46505193
- 0.51050063 0.51050063 0.51050063 0.39473191 0.33826541 0.28179892]</t>
+          <t>[3.6619009  3.6619009  3.6619009  1.64808509 1.64808509 1.64808509
+ 0.540889   0.540889   0.540889   0.39472352 0.3382431  0.28176268]</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -6262,8 +6262,8 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>[1.66352846 1.66352846 1.66352846 0.83299694 0.83299694 0.83299694
- 0.28988787 0.28988787 0.28988787 0.2241316  0.19208866 0.16004575]</t>
+          <t>[2.08854905 2.08854905 2.08854905 0.93730027 0.93730027 0.93730027
+ 0.30715626 0.30715626 0.30715626 0.22412684 0.19207599 0.16002519]</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -6286,8 +6286,8 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>[1.66352846 1.66352846 1.66352846 0.83299694 0.83299694 0.83299694
- 0.28988787 0.28988787 0.28988787 0.2241316  0.19208866 0.16004575]</t>
+          <t>[2.08854905 2.08854905 2.08854905 0.93730027 0.93730027 0.93730027
+ 0.30715626 0.30715626 0.30715626 0.22412684 0.19207599 0.16002519]</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -6310,8 +6310,8 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>[35.86385203 35.86385203 35.86385203 18.15351991 18.15351991 18.15351991
-  6.36187586  6.36187586  6.36187586  4.28660381  2.69761346  1.55964367]</t>
+          <t>[44.77647565 44.77647565 44.77647565 20.39905705 20.39905705 20.39905705
+  6.73935434  6.73935434  6.73935434  4.28635948  2.69709786  1.55905255]</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -6334,8 +6334,8 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>[35.86385203 35.86385203 35.86385203 18.15351991 18.15351991 18.15351991
-  6.36187586  6.36187586  6.36187586  4.28660381  2.69761346  1.55964367]</t>
+          <t>[44.77647565 44.77647565 44.77647565 20.39905705 20.39905705 20.39905705
+  6.73935434  6.73935434  6.73935434  4.28635948  2.69709786  1.55905255]</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -6358,8 +6358,8 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[71.72770406 71.72770406 71.72770405 36.30703982 36.30703982 36.30703982
- 12.72375172 12.72375172 12.72375172  8.57320761  5.39522693  3.11928735]</t>
+          <t>[89.55295129 89.55295129 89.55295129 40.7981141  40.7981141  40.7981141
+ 13.47870869 13.47870869 13.47870869  8.57271897  5.39419571  3.11810511]</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -6454,8 +6454,8 @@
       <c r="D256" t="inlineStr">
         <is>
           <t>[10.         10.         10.         10.         10.         10.
- 10.         10.         10.         10.          8.66666667  7.33333333
-  6.        ]</t>
+ 10.         10.         10.         10.          8.66633333  7.33266667
+  5.999     ]</t>
         </is>
       </c>
       <c r="E256" t="inlineStr"/>
@@ -6478,8 +6478,8 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>[0.08762876 0.08762876 0.08762876 0.04377485 0.04377485 0.04377485
- 0.01520981 0.01520981 0.01520981 0.01259849 0.01259849 0.01259849]</t>
+          <t>[0.11014967 0.11014967 0.11014967 0.04927097 0.04927097 0.04927097
+ 0.01611666 0.01611666 0.01611666 0.01259845 0.01259845 0.01259845]</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -6586,7 +6586,7 @@
         <is>
           <t>[[ 2.91197623e+06]
  [-3.35507584e+03]
- [-2.25637083e+07]]</t>
+ [-2.54156119e+07]]</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -6609,8 +6609,8 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>[[-1.81007762e+05]
- [ 4.25688549e+08]
+          <t>[[-1.80102153e+05]
+ [ 4.24912101e+08]
  [ 6.48957511e+06]]</t>
         </is>
       </c>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>[2598852.87460076]</t>
+          <t>[2889675.75593395]</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -6749,7 +6749,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>[-2.44104757e+00 -3.15157206e-02  9.20912568e+01]</t>
+          <t>[-2.19537555e+00 -2.83439140e-02  8.59864222e+01]</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -6772,7 +6772,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>[3.19836691e+10 3.18392449e+10 2.92321712e+08 2.02613158e+02
+          <t>[3.24592083e+10 3.23147841e+10 2.99351652e+08 2.02613158e+02
  1.08611945e+07 1.44041114e+05]</t>
         </is>
       </c>
@@ -6881,16 +6881,16 @@
           <t>[[     0.        ]
  [     0.        ]
  [     0.        ]
- [-25641.80265667]
- [-26386.97697153]
- [-28675.25126338]
- [-32655.96964616]
- [-38591.26669939]
- [-46880.01192749]
- [-58098.78836626]
- [-67607.67666409]
- [-79133.80234944]
- [-93148.84708092]
+ [-10649.0248982 ]
+ [-11433.68047893]
+ [-13913.64689071]
+ [-18484.29060266]
+ [-25921.2568732 ]
+ [-37508.26520196]
+ [-55196.80811561]
+ [-64659.46441983]
+ [-75920.48624405]
+ [-89398.02287441]
  [     0.        ]
  [     0.        ]
  [     0.        ]
@@ -6993,15 +6993,15 @@
  [-1070.12742489]
  [-1170.96499657]
  [-1251.15492825]
- [-1344.74637368]
+ [-1344.74637369]
  [-1422.65663273]
  [-1490.05546078]
  [-1526.70959183]
- [-1561.06149956]
- [-1593.43543743]
- [-1387.34045863]
- [-1189.05983895]
- [ -992.78218561]]</t>
+ [-1561.06149957]
+ [-1593.43543744]
+ [-1387.28433325]
+ [-1188.95291972]
+ [ -992.62302317]]</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
@@ -7024,24 +7024,24 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>[[-48775515.17122245]
- [-46709495.78989569]
- [-44516549.48992449]
- [-42396701.45654713]
- [-40269345.64631078]
- [-38126474.08100807]
- [-36152198.91490456]
- [-34142719.23414126]
- [-32084958.45406674]
- [-30788708.32647578]
- [-29457750.42360511]
- [-28084649.58774946]
- [-26931446.77713246]
- [-25931939.55648188]
- [-24932432.33583146]
- [-24466500.50774735]
- [-24000568.67966206]
- [-23534636.85157788]]</t>
+          <t>[[-71608969.72190899]
+ [-67811145.23262818]
+ [-63960608.07452876]
+ [-59669900.98597158]
+ [-55365727.32734624]
+ [-51032469.90504859]
+ [-46649681.09407951]
+ [-42188418.37979001]
+ [-37606394.00241446]
+ [-35913539.09859414]
+ [-34186490.12378363]
+ [-32418622.54721936]
+ [-30926056.89708709]
+ [-29580997.98349654]
+ [-28235939.06990544]
+ [-27619473.28119707]
+ [-27003007.49248839]
+ [-26386541.70377922]]</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -7064,24 +7064,24 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>[[ -4838790.51253736]
- [-12998315.63162183]
- [-13890972.61333862]
- [  2913098.30281492]
- [  2913334.11894291]
- [  2913570.97449965]
- [  2913660.08874786]
- [  2913911.17596972]
- [  2914176.73153446]
- [  2913481.6662797 ]
- [  2913620.47046295]
- [  2913771.69808733]
- [  2913648.89709279]
- [  2913439.1945597 ]
- [  2913513.53137175]
- [  2912719.22737722]
- [  2912737.1317083 ]
- [  2912754.81930069]]</t>
+          <t>[[ -7748708.53827312]
+ [-15580790.42736386]
+ [-12743432.48041843]
+ [  2913827.63900728]
+ [  2914514.21046665]
+ [  2915187.41996965]
+ [  2915857.44737771]
+ [  2916539.93966667]
+ [  2917259.38795378]
+ [  2914089.18820486]
+ [  2914225.90983179]
+ [  2914373.03200845]
+ [  2914159.75375687]
+ [  2913956.63410349]
+ [  2914031.51946719]
+ [  2912944.53295832]
+ [  2912962.54714982]
+ [  2912980.34241901]]</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -7104,24 +7104,24 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>[[ -205.57487605]
- [ -880.36942023]
- [-2345.02353043]
- [-3355.06277995]
- [-3355.04378377]
- [-3355.01736593]
- [-3354.99114107]
- [-3354.94790047]
- [-3354.89465913]
- [-3354.93149676]
- [-3354.89796193]
- [-3354.85932523]
- [-3354.85331215]
- [-3354.86115566]
- [-3354.82904068]
- [-3354.94903518]
- [-3354.94029345]
- [-3354.93130987]]</t>
+          <t>[[  530.300898  ]
+ [  642.21537488]
+ [ -909.58811166]
+ [-3355.25747086]
+ [-3355.27218137]
+ [-3355.25579311]
+ [-3355.20767403]
+ [-3355.12623704]
+ [-3355.00813913]
+ [-3355.01262507]
+ [-3354.98324904]
+ [-3354.95000488]
+ [-3354.93599437]
+ [-3354.9237232 ]
+ [-3354.89157603]
+ [-3354.97982541]
+ [-3354.97107806]
+ [-3354.96208676]]</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -7144,24 +7144,24 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>[[    239.28571513]
- [  -4201.92835476]
- [ -26643.36436015]
- [ -44959.09302157]
- [ -61728.08420473]
- [ -78492.46811569]
- [ -95251.46732249]
- [-112003.77821111]
- [-128749.00215123]
- [-139908.69752909]
- [-151064.77268845]
- [-162217.28470695]
- [-173366.3081323 ]
- [-184511.32896581]
- [-195652.22794063]
- [-201221.39487741]
- [-206789.46240332]
- [-212356.43924276]]</t>
+          <t>[[  10932.91082327]
+ [  32213.16090038]
+ [  35499.34555078]
+ [  12565.61024464]
+ [ -15438.75512045]
+ [ -43436.09549503]
+ [ -71420.7058862 ]
+ [ -99388.49434905]
+ [-127337.04102449]
+ [-138511.16000347]
+ [-149681.8823925 ]
+ [-160849.20444229]
+ [-172013.19942387]
+ [-183173.46801172]
+ [-194330.0386298 ]
+ [-199907.16452505]
+ [-205483.31215029]
+ [-211058.49616375]]</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -7184,24 +7184,24 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>[[4.65409225e+07]
- [2.39603927e+08]
- [4.93459380e+08]
- [5.51347599e+08]
- [5.36517034e+08]
- [5.21657221e+08]
- [5.06771650e+08]
- [4.91862848e+08]
- [4.76936687e+08]
- [4.66981022e+08]
- [4.57020126e+08]
- [4.47055847e+08]
- [4.37089460e+08]
- [4.27120074e+08]
- [4.17147587e+08]
- [4.12161747e+08]
- [4.07175268e+08]
- [4.02188288e+08]]</t>
+          <t>[[9.38515229e+07]
+ [3.41628800e+08]
+ [5.72830489e+08]
+ [6.01793530e+08]
+ [5.76940324e+08]
+ [5.51989258e+08]
+ [5.26968151e+08]
+ [5.01903977e+08]
+ [4.76823172e+08]
+ [4.66802689e+08]
+ [4.56783535e+08]
+ [4.46767149e+08]
+ [4.36754663e+08]
+ [4.26744511e+08]
+ [4.16736586e+08]
+ [4.11735437e+08]
+ [4.06734844e+08]
+ [4.01734940e+08]]</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -7224,24 +7224,24 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>[[1088059.83940708]
- [2368885.78641621]
- [4069412.29915189]
- [6490274.94327118]
- [6490241.6142683 ]
- [6490208.16756958]
- [6490238.8692266 ]
- [6490204.49494568]
- [6490169.50808973]
- [6490190.00902438]
- [6490165.16451033]
- [6490139.65496933]
- [6490161.44436534]
- [6490137.36641372]
- [6490116.49764749]
- [6490133.41649313]
- [6490122.98210603]
- [6490112.54775241]]</t>
+          <t>[[1289024.68199321]
+ [2703990.37622579]
+ [4383165.17669898]
+ [6490369.6562311 ]
+ [6490316.34914177]
+ [6490262.8756256 ]
+ [6490209.04167321]
+ [6490154.59327916]
+ [6490099.17092397]
+ [6490099.98019947]
+ [6490076.35130683]
+ [6490052.24531017]
+ [6490078.04280445]
+ [6490054.8858834 ]
+ [6490034.01764767]
+ [6490052.98938775]
+ [6490042.55525931]
+ [6490032.12116441]]</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -7264,8 +7264,8 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>[-70.         -60.         -50.         -40.         -35.
- -30.         -25.         -20.         -15.         -10.
+          <t>[-90.         -80.         -70.         -60.         -51.66666667
+ -43.33333333 -35.         -26.66666667 -18.33333333 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.          27.07132867
   39.14265734  51.21398601  68.45874126  85.7034965  102.94825175
@@ -7297,8 +7297,8 @@
  10.         10.         10.         10.         10.         10.
  10.         10.         10.         10.         10.         10.
  10.         10.         10.         10.         10.         10.
- 10.         10.         10.         10.          8.66666667  7.33333333
-  6.        ]</t>
+ 10.         10.         10.         10.          8.66633333  7.33266667
+  5.999     ]</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
@@ -7321,11 +7321,11 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>[0.08100879 0.08100879 0.08100879 0.15735166 0.15735166 0.15735166
- 0.14186499 0.14186499 0.14186499 0.12869864 0.12869864 0.12869864
- 0.11801254 0.11801254 0.11801254 0.10993596 0.10993596 0.10993596
- 0.08762876 0.08762876 0.08762876 0.04377485 0.04377485 0.04377485
- 0.01520981 0.01520981 0.01520981 0.01259849 0.01259849 0.01259849]</t>
+          <t>[0.14995535 0.14995535 0.14995535 0.2        0.2        0.2
+ 0.2        0.2        0.2        0.17759745 0.17759745 0.17759745
+ 0.15948132 0.15948132 0.15948132 0.14598637 0.14598637 0.14598637
+ 0.11014967 0.11014967 0.11014967 0.04927097 0.04927097 0.04927097
+ 0.01611666 0.01611666 0.01611666 0.01259845 0.01259845 0.01259845]</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>[202.96]</t>
+          <t>[222.96]</t>
         </is>
       </c>
       <c r="E285" t="inlineStr"/>
@@ -7473,11 +7473,11 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>[2.70105419 2.70105419 2.70105419 5.20615315 5.20615315 5.20615315
- 4.70114511 4.70114511 4.70114511 4.27053237 4.27053237 4.27053237
- 3.92018084 3.92018084 3.92018084 3.65487499 3.65487499 3.65487499
- 2.919832   2.919832   2.919832   1.46505193 1.46505193 1.46505193
- 0.51050063 0.51050063 0.51050063 0.39473191 0.33826541 0.28179892]</t>
+          <t>[4.96516632 4.96516632 4.96516632 6.58854811 6.58854811 6.58854811
+ 6.58854811 6.58854811 6.58854811 5.86392083 5.86392083 5.86392083
+ 5.27547361 5.27547361 5.27547361 4.83569745 4.83569745 4.83569745
+ 3.6619009  3.6619009  3.6619009  1.64808509 1.64808509 1.64808509
+ 0.540889   0.540889   0.540889   0.39472352 0.3382431  0.28176268]</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -7500,11 +7500,11 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>[1.53840405 1.53840405 1.53840405 2.97617823 2.97617823 2.97617823
- 2.68541961 2.68541961 2.68541961 2.43786778 2.43786778 2.43786778
- 2.23670558 2.23670558 2.23670558 2.08452045 2.08452045 2.08452045
- 1.66352846 1.66352846 1.66352846 0.83299694 0.83299694 0.83299694
- 0.28988787 0.28988787 0.28988787 0.2241316  0.19208866 0.16004575]</t>
+          <t>[2.83737031 2.83737031 2.83737031 3.77459819 3.77459819 3.77459819
+ 3.77459819 3.77459819 3.77459819 3.3556148  3.3556148  3.3556148
+ 3.016127   3.016127   3.016127   2.76284156 2.76284156 2.76284156
+ 2.08854905 2.08854905 2.08854905 0.93730027 0.93730027 0.93730027
+ 0.30715626 0.30715626 0.30715626 0.22412684 0.19207599 0.16002519]</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -7527,11 +7527,11 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>[1.53840405 1.53840405 1.53840405 2.97617823 2.97617823 2.97617823
- 2.68541961 2.68541961 2.68541961 2.43786778 2.43786778 2.43786778
- 2.23670558 2.23670558 2.23670558 2.08452045 2.08452045 2.08452045
- 1.66352846 1.66352846 1.66352846 0.83299694 0.83299694 0.83299694
- 0.28988787 0.28988787 0.28988787 0.2241316  0.19208866 0.16004575]</t>
+          <t>[2.83737031 2.83737031 2.83737031 3.77459819 3.77459819 3.77459819
+ 3.77459819 3.77459819 3.77459819 3.3556148  3.3556148  3.3556148
+ 3.016127   3.016127   3.016127   2.76284156 2.76284156 2.76284156
+ 2.08854905 2.08854905 2.08854905 0.93730027 0.93730027 0.93730027
+ 0.30715626 0.30715626 0.30715626 0.22412684 0.19207599 0.16002519]</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -7554,11 +7554,11 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>[33.22058588 33.22058588 33.22058588 63.0611478  63.0611478  63.0611478
- 57.12064752 57.12064752 57.12064752 52.02530892 52.02530892 52.02530892
- 47.85933326 47.85933326 47.85933326 44.69247506 44.69247506 44.69247506
- 35.86385203 35.86385203 35.86385203 18.15351991 18.15351991 18.15351991
-  6.36187586  6.36187586  6.36187586  4.28660381  2.69761346  1.55964367]</t>
+          <t>[60.23110832 60.23110832 60.23110832 79.12846284 79.12846284 79.12846284
+ 79.12846284 79.12846284 79.12846284 70.74170522 70.74170522 70.74170522
+ 63.87361594 63.87361594 63.87361594 58.70711792 58.70711792 58.70711792
+ 44.77647565 44.77647565 44.77647565 20.39905705 20.39905705 20.39905705
+  6.73935434  6.73935434  6.73935434  4.28635948  2.69709786  1.55905255]</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -7581,11 +7581,11 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>[33.22058588 33.22058588 33.22058588 63.0611478  63.0611478  63.0611478
- 57.12064752 57.12064752 57.12064752 52.02530892 52.02530892 52.02530892
- 47.85933326 47.85933326 47.85933326 44.69247506 44.69247506 44.69247506
- 35.86385203 35.86385203 35.86385203 18.15351991 18.15351991 18.15351991
-  6.36187586  6.36187586  6.36187586  4.28660381  2.69761346  1.55964367]</t>
+          <t>[60.23110832 60.23110832 60.23110832 79.12846284 79.12846284 79.12846284
+ 79.12846284 79.12846284 79.12846284 70.74170522 70.74170522 70.74170522
+ 63.87361594 63.87361594 63.87361594 58.70711792 58.70711792 58.70711792
+ 44.77647565 44.77647565 44.77647565 20.39905705 20.39905705 20.39905705
+  6.73935434  6.73935434  6.73935434  4.28635948  2.69709786  1.55905255]</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -7608,12 +7608,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>[ 66.44117175  66.44117175  66.44117175 126.1222956  126.1222956
- 126.1222956  114.24129504 114.24129504 114.24129504 104.05061784
- 104.05061784 104.05061784  95.71866653  95.71866653  95.71866653
-  89.38495012  89.38495012  89.38495012  71.72770406  71.72770406
-  71.72770405  36.30703982  36.30703982  36.30703982  12.72375172
-  12.72375172  12.72375172   8.57320761   5.39522693   3.11928735]</t>
+          <t>[120.46221664 120.46221664 120.46221664 158.25692568 158.25692568
+ 158.25692568 158.25692568 158.25692568 158.25692568 141.48341044
+ 141.48341044 141.48341044 127.74723188 127.74723188 127.74723188
+ 117.41423584 117.41423584 117.41423584  89.55295129  89.55295129
+  89.55295129  40.7981141   40.7981141   40.7981141   13.47870869
+  13.47870869  13.47870869   8.57271897   5.39419571   3.11810511]</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -7636,36 +7636,36 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>[[-4.87755152e+07]
- [-4.67094958e+07]
- [-4.45165495e+07]
- [-4.23967015e+07]
- [-4.02693456e+07]
- [-3.81264741e+07]
- [-3.61521989e+07]
- [-3.41427192e+07]
- [-3.20849585e+07]
- [-3.07887083e+07]
- [-2.94577504e+07]
- [-2.80846496e+07]
- [-2.69314468e+07]
- [-2.59319396e+07]
- [-2.49324323e+07]
- [-2.44665005e+07]
- [-2.40005687e+07]
- [-2.35346369e+07]
- [-1.98524951e+07]
- [-1.71445921e+07]
- [-1.44352372e+07]
- [-1.24820989e+07]
- [-1.05274772e+07]
- [-8.57139156e+06]
- [-8.15245096e+06]
- [-7.73297743e+06]
- [-7.31314022e+06]
- [-7.00648722e+06]
- [-6.74237434e+06]
- [ 9.89530236e-10]]</t>
+          <t>[[-7.16089697e+07]
+ [-6.78111452e+07]
+ [-6.39606081e+07]
+ [-5.96699010e+07]
+ [-5.53657273e+07]
+ [-5.10324699e+07]
+ [-4.66496811e+07]
+ [-4.21884184e+07]
+ [-3.76063940e+07]
+ [-3.59135391e+07]
+ [-3.41864901e+07]
+ [-3.24186225e+07]
+ [-3.09260569e+07]
+ [-2.95809980e+07]
+ [-2.82359391e+07]
+ [-2.76194733e+07]
+ [-2.70030075e+07]
+ [-2.63865417e+07]
+ [-2.20192266e+07]
+ [-1.86261501e+07]
+ [-1.52316219e+07]
+ [-1.30370554e+07]
+ [-1.08410054e+07]
+ [-8.64349149e+06]
+ [-8.20050075e+06]
+ [-7.75697707e+06]
+ [-7.31308972e+06]
+ [-7.00644291e+06]
+ [-6.74234679e+06]
+ [-1.23400241e-08]]</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -7688,36 +7688,36 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>[[-4.83879051e+06]
- [-1.29983156e+07]
- [-1.38909726e+07]
- [ 2.91309830e+06]
- [ 2.91333412e+06]
- [ 2.91357097e+06]
- [ 2.91366009e+06]
- [ 2.91391118e+06]
- [ 2.91417673e+06]
- [ 2.91348167e+06]
- [ 2.91362047e+06]
- [ 2.91377170e+06]
- [ 2.91364890e+06]
- [ 2.91343919e+06]
- [ 2.91351353e+06]
- [ 2.91271923e+06]
- [ 2.91273713e+06]
- [ 2.91275482e+06]
- [ 2.91698804e+06]
- [ 2.91783693e+06]
- [ 2.91859225e+06]
- [ 2.91766132e+06]
- [ 2.91878905e+06]
- [ 2.91967842e+06]
- [ 2.91383041e+06]
- [ 2.91401684e+06]
- [ 2.91414976e+06]
- [ 2.91363610e+06]
- [ 2.91344016e+06]
- [ 1.19819921e+03]]</t>
+          <t>[[-7.74870854e+06]
+ [-1.55807904e+07]
+ [-1.27434325e+07]
+ [ 2.91382764e+06]
+ [ 2.91451421e+06]
+ [ 2.91518742e+06]
+ [ 2.91585745e+06]
+ [ 2.91653994e+06]
+ [ 2.91725939e+06]
+ [ 2.91408919e+06]
+ [ 2.91422591e+06]
+ [ 2.91437303e+06]
+ [ 2.91415975e+06]
+ [ 2.91395663e+06]
+ [ 2.91403152e+06]
+ [ 2.91294453e+06]
+ [ 2.91296255e+06]
+ [ 2.91298034e+06]
+ [ 2.91799034e+06]
+ [ 2.91884038e+06]
+ [ 2.91959679e+06]
+ [ 2.91779396e+06]
+ [ 2.91891874e+06]
+ [ 2.91980538e+06]
+ [ 2.91375433e+06]
+ [ 2.91393971e+06]
+ [ 2.91407187e+06]
+ [ 2.91349522e+06]
+ [ 2.91331848e+06]
+ [ 1.09655230e+03]]</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -7740,36 +7740,36 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>[[ -205.57487605]
- [ -880.36942023]
- [-2345.02353043]
- [-3355.06277995]
- [-3355.04378377]
- [-3355.01736593]
- [-3354.99114107]
- [-3354.94790047]
- [-3354.89465913]
- [-3354.93149676]
- [-3354.89796193]
- [-3354.85932523]
- [-3354.85331215]
- [-3354.86115566]
- [-3354.82904068]
- [-3354.94903518]
- [-3354.94029345]
- [-3354.93130987]
- [-3353.96257664]
- [-3353.3836007 ]
- [-3352.71498822]
- [-3352.32034303]
- [-3350.50717986]
- [-3348.42702051]
- [-3352.99120687]
- [-3352.07119309]
- [-3351.09344541]
- [-3351.27221174]
- [-3350.5697961 ]
- [    4.43257382]]</t>
+          <t>[[  530.300898  ]
+ [  642.21537488]
+ [ -909.58811166]
+ [-3355.25747086]
+ [-3355.27218137]
+ [-3355.25579311]
+ [-3355.20767403]
+ [-3355.12623704]
+ [-3355.00813913]
+ [-3355.01262507]
+ [-3354.98324904]
+ [-3354.95000488]
+ [-3354.93599437]
+ [-3354.9237232 ]
+ [-3354.89157603]
+ [-3354.97982541]
+ [-3354.97107806]
+ [-3354.96208676]
+ [-3354.17860372]
+ [-3353.60155081]
+ [-3352.9335658 ]
+ [-3352.66948044]
+ [-3350.86155105]
+ [-3348.78636215]
+ [-3353.16388489]
+ [-3352.2469451 ]
+ [-3351.27211678]
+ [-3351.57563175]
+ [-3350.83179871]
+ [    4.21368876]]</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -7792,36 +7792,36 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>[[ 2.39285715e+02]
- [-4.20192835e+03]
- [-2.66433644e+04]
- [-4.49590930e+04]
- [-6.17280842e+04]
- [-7.84924681e+04]
- [-9.52514673e+04]
- [-1.12003778e+05]
- [-1.28749002e+05]
- [-1.39908698e+05]
- [-1.51064773e+05]
- [-1.62217285e+05]
- [-1.73366308e+05]
- [-1.84511329e+05]
- [-1.95652228e+05]
- [-2.01221395e+05]
- [-2.06789462e+05]
- [-2.12356439e+05]
- [-2.52632602e+05]
- [-2.92833330e+05]
- [-3.32972920e+05]
- [-3.90129339e+05]
- [-4.46980621e+05]
- [-5.03604071e+05]
- [-5.37433541e+05]
- [-5.70939869e+05]
- [-6.04136789e+05]
- [-6.34785495e+05]
- [-6.64881249e+05]
- [-1.11915576e-04]]</t>
+          <t>[[ 1.09329108e+04]
+ [ 3.22131609e+04]
+ [ 3.54993456e+04]
+ [ 1.25656102e+04]
+ [-1.54387551e+04]
+ [-4.34360955e+04]
+ [-7.14207059e+04]
+ [-9.93884943e+04]
+ [-1.27337041e+05]
+ [-1.38511160e+05]
+ [-1.49681882e+05]
+ [-1.60849204e+05]
+ [-1.72013199e+05]
+ [-1.83173468e+05]
+ [-1.94330039e+05]
+ [-1.99907165e+05]
+ [-2.05483312e+05]
+ [-2.11058496e+05]
+ [-2.51396615e+05]
+ [-2.91665896e+05]
+ [-3.31882375e+05]
+ [-3.89165168e+05]
+ [-4.46159838e+05]
+ [-5.02947320e+05]
+ [-5.36887400e+05]
+ [-5.70519726e+05]
+ [-6.03858995e+05]
+ [-6.34647393e+05]
+ [-6.64877029e+05]
+ [-1.06415769e-04]]</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -7844,36 +7844,36 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>[[ 4.65409225e+07]
- [ 2.39603927e+08]
- [ 4.93459380e+08]
- [ 5.51347599e+08]
- [ 5.36517034e+08]
- [ 5.21657221e+08]
- [ 5.06771650e+08]
- [ 4.91862848e+08]
- [ 4.76936687e+08]
- [ 4.66981022e+08]
- [ 4.57020126e+08]
- [ 4.47055847e+08]
- [ 4.37089460e+08]
- [ 4.27120074e+08]
- [ 4.17147587e+08]
- [ 4.12161747e+08]
- [ 4.07175268e+08]
- [ 4.02188288e+08]
- [ 3.66026951e+08]
- [ 3.29838102e+08]
- [ 2.93675863e+08]
- [ 2.42011753e+08]
- [ 1.90294823e+08]
- [ 1.38648729e+08]
- [ 1.07733112e+08]
- [ 7.67828097e+07]
- [ 4.58247600e+07]
- [ 1.69393293e+07]
- [-1.19304958e+07]
- [ 3.02528372e-02]]</t>
+          <t>[[ 9.38515229e+07]
+ [ 3.41628800e+08]
+ [ 5.72830489e+08]
+ [ 6.01793530e+08]
+ [ 5.76940324e+08]
+ [ 5.51989258e+08]
+ [ 5.26968151e+08]
+ [ 5.01903977e+08]
+ [ 4.76823172e+08]
+ [ 4.66802689e+08]
+ [ 4.56783535e+08]
+ [ 4.46767149e+08]
+ [ 4.36754663e+08]
+ [ 4.26744511e+08]
+ [ 4.16736586e+08]
+ [ 4.11735437e+08]
+ [ 4.06734844e+08]
+ [ 4.01734940e+08]
+ [ 3.65494647e+08]
+ [ 3.29267707e+08]
+ [ 2.93106694e+08]
+ [ 2.41499081e+08]
+ [ 1.89861168e+08]
+ [ 1.38312620e+08]
+ [ 1.07464087e+08]
+ [ 7.65831978e+07]
+ [ 4.56957410e+07]
+ [ 1.68751703e+07]
+ [-1.19324552e+07]
+ [ 2.76935206e-02]]</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -7896,35 +7896,35 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>[[1088059.83940708]
- [2368885.78641621]
- [4069412.29915189]
- [6490274.94327118]
- [6490241.6142683 ]
- [6490208.16756958]
- [6490238.8692266 ]
- [6490204.49494568]
- [6490169.50808973]
- [6490190.00902438]
- [6490165.16451033]
- [6490139.65496933]
- [6490161.44436534]
- [6490137.36641372]
- [6490116.49764749]
- [6490133.41649313]
- [6490122.98210603]
- [6490112.54775241]
- [6490207.30530626]
- [6490131.57475526]
- [6490055.66672729]
- [6490381.54250041]
- [6490272.41764896]
- [6490163.21358986]
- [6490949.43721324]
- [6490882.25122934]
- [6490814.98117257]
- [6491091.62342394]
- [6491270.61579512]
+          <t>[[1289024.68199321]
+ [2703990.37622579]
+ [4383165.17669898]
+ [6490369.6562311 ]
+ [6490316.34914177]
+ [6490262.8756256 ]
+ [6490209.04167321]
+ [6490154.59327916]
+ [6490099.17092397]
+ [6490099.98019947]
+ [6490076.35130683]
+ [6490052.24531017]
+ [6490078.04280445]
+ [6490054.8858834 ]
+ [6490034.01764767]
+ [6490052.98938775]
+ [6490042.55525931]
+ [6490032.12116441]
+ [6490142.92820285]
+ [6490067.23065334]
+ [6489991.39195127]
+ [6490331.52527934]
+ [6490222.53039245]
+ [6490113.4654945 ]
+ [6490883.12183292]
+ [6490816.07162849]
+ [6490748.94214876]
+ [6491091.64513279]
+ [6491270.71698807]
  [      0.        ]]</t>
         </is>
       </c>
@@ -7951,16 +7951,16 @@
           <t>[[0.00000000e+00]
  [0.00000000e+00]
  [0.00000000e+00]
- [4.08895047e+05]
- [3.58832007e+05]
- [3.09169725e+05]
- [2.59944974e+05]
- [2.11222195e+05]
- [1.63098616e+05]
- [1.15712266e+05]
- [8.46225037e+04]
- [5.40167151e+04]
- [2.39846967e+04]
+ [6.06065524e+05]
+ [5.22520878e+05]
+ [4.39444752e+05]
+ [3.56941795e+05]
+ [2.75206472e+05]
+ [1.94558238e+05]
+ [1.15502979e+05]
+ [8.44923057e+04]
+ [5.39280260e+04]
+ [2.38934955e+04]
  [0.00000000e+00]
  [0.00000000e+00]
  [0.00000000e+00]
@@ -8001,7 +8001,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>[85.]</t>
+          <t>[105.]</t>
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
@@ -8047,7 +8047,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>[-70.]</t>
+          <t>[-90.]</t>
         </is>
       </c>
       <c r="E305" t="inlineStr"/>
@@ -8622,7 +8622,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>[4176499.19903658]</t>
+          <t>[4813643.7484258]</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -8645,7 +8645,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>[1615990.87460076]</t>
+          <t>[1906813.75593395]</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>[5121499.19903658]</t>
+          <t>[5758643.7484258]</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>[341.43327994]</t>
+          <t>[383.90958323]</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -8714,7 +8714,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>[1615990.87460076]</t>
+          <t>[1906813.75593395]</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
@@ -8783,7 +8783,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>[4176499.19903658]</t>
+          <t>[4813643.7484258]</t>
         </is>
       </c>
       <c r="E337" t="inlineStr"/>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>[4176499.19903658]</t>
+          <t>[4813643.7484258]</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -8829,9 +8829,9 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>[ 927.99815941 1070.12742489 1170.96499657 1251.15492825 1344.74637368
- 1422.65663273 1490.05546078 1526.70959183 1561.06149956 1593.43543743
- 1387.34045863 1189.05983895  992.78218561]</t>
+          <t>[ 927.99815941 1070.12742489 1170.96499657 1251.15492825 1344.74637369
+ 1422.65663273 1490.05546078 1526.70959183 1561.06149957 1593.43543744
+ 1387.28433325 1188.95291972  992.62302317]</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -9047,8 +9047,8 @@
       <c r="D348" t="inlineStr">
         <is>
           <t>[10.         10.         10.         10.         10.         10.
- 10.         10.         10.         10.          8.66666667  7.33333333
-  6.        ]</t>
+ 10.         10.         10.         10.          8.66633333  7.33266667
+  5.999     ]</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -9142,9 +9142,9 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>[ 927.99815941 1070.12742489 1170.96499657 1251.15492825 1344.74637368
- 1422.65663273 1490.05546078 1526.70959183 1561.06149956 1593.43543743
- 1387.34045863 1189.05983895  992.78218561]</t>
+          <t>[ 927.99815941 1070.12742489 1170.96499657 1251.15492825 1344.74637369
+ 1422.65663273 1490.05546078 1526.70959183 1561.06149957 1593.43543744
+ 1387.28433325 1188.95291972  992.62302317]</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -9285,9 +9285,9 @@
       <c r="D358" t="inlineStr">
         <is>
           <t>[ -927.99815941 -1070.12742489 -1170.96499657 -1251.15492825
- -1344.74637368 -1422.65663273 -1490.05546078 -1526.70959183
- -1561.06149956 -1593.43543743 -1387.34045863 -1189.05983895
-  -992.78218561]</t>
+ -1344.74637369 -1422.65663273 -1490.05546078 -1526.70959183
+ -1561.06149957 -1593.43543744 -1387.28433325 -1188.95291972
+  -992.62302317]</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
@@ -9335,7 +9335,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>[10. 10. 10. 10.  6.]</t>
+          <t>[10.    10.    10.    10.     5.999]</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>[0.08762876 0.04377485 0.01520981 0.01259849]</t>
+          <t>[0.11014967 0.04927097 0.01611666 0.01259845]</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
@@ -9423,7 +9423,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>[10. 10. 10. 10.  6.]</t>
+          <t>[10.    10.    10.    10.     5.999]</t>
         </is>
       </c>
       <c r="E364" t="inlineStr"/>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>[0.08762876 0.04377485 0.01520981 0.01259849]</t>
+          <t>[0.11014967 0.04927097 0.01611666 0.01259845]</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -9682,8 +9682,8 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>[0.08762876 0.08762876 0.08762876 0.04377485 0.04377485 0.04377485
- 0.01520981 0.01520981 0.01520981 0.01259849 0.01259849 0.01259849]</t>
+          <t>[0.11014967 0.11014967 0.11014967 0.04927097 0.04927097 0.04927097
+ 0.01611666 0.01611666 0.01611666 0.01259845 0.01259845 0.01259845]</t>
         </is>
       </c>
       <c r="E375" t="inlineStr"/>
@@ -9866,8 +9866,8 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>[2.919832   2.919832   2.919832   1.46505193 1.46505193 1.46505193
- 0.51050063 0.51050063 0.51050063 0.39473191 0.33826541 0.28179892]</t>
+          <t>[3.6619009  3.6619009  3.6619009  1.64808509 1.64808509 1.64808509
+ 0.540889   0.540889   0.540889   0.39472352 0.3382431  0.28176268]</t>
         </is>
       </c>
       <c r="E383" t="inlineStr"/>
@@ -9890,8 +9890,8 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>[1.66352846 1.66352846 1.66352846 0.83299694 0.83299694 0.83299694
- 0.28988787 0.28988787 0.28988787 0.2241316  0.19208866 0.16004575]</t>
+          <t>[2.08854905 2.08854905 2.08854905 0.93730027 0.93730027 0.93730027
+ 0.30715626 0.30715626 0.30715626 0.22412684 0.19207599 0.16002519]</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -9914,8 +9914,8 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>[1.66352846 1.66352846 1.66352846 0.83299694 0.83299694 0.83299694
- 0.28988787 0.28988787 0.28988787 0.2241316  0.19208866 0.16004575]</t>
+          <t>[2.08854905 2.08854905 2.08854905 0.93730027 0.93730027 0.93730027
+ 0.30715626 0.30715626 0.30715626 0.22412684 0.19207599 0.16002519]</t>
         </is>
       </c>
       <c r="E385" t="inlineStr"/>
@@ -9938,8 +9938,8 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>[35.86385203 35.86385203 35.86385203 18.15351991 18.15351991 18.15351991
-  6.36187586  6.36187586  6.36187586  4.28660381  2.69761346  1.55964367]</t>
+          <t>[44.77647565 44.77647565 44.77647565 20.39905705 20.39905705 20.39905705
+  6.73935434  6.73935434  6.73935434  4.28635948  2.69709786  1.55905255]</t>
         </is>
       </c>
       <c r="E386" t="inlineStr"/>
@@ -9962,8 +9962,8 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>[35.86385203 35.86385203 35.86385203 18.15351991 18.15351991 18.15351991
-  6.36187586  6.36187586  6.36187586  4.28660381  2.69761346  1.55964367]</t>
+          <t>[44.77647565 44.77647565 44.77647565 20.39905705 20.39905705 20.39905705
+  6.73935434  6.73935434  6.73935434  4.28635948  2.69709786  1.55905255]</t>
         </is>
       </c>
       <c r="E387" t="inlineStr"/>
@@ -9986,8 +9986,8 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>[71.72770406 71.72770406 71.72770405 36.30703982 36.30703982 36.30703982
- 12.72375172 12.72375172 12.72375172  8.57320761  5.39522693  3.11928735]</t>
+          <t>[89.55295129 89.55295129 89.55295129 40.7981141  40.7981141  40.7981141
+ 13.47870869 13.47870869 13.47870869  8.57271897  5.39419571  3.11810511]</t>
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
@@ -10081,18 +10081,18 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>[[-19855805.22214456]
- [-17146450.36786209]
- [-14436013.8180824 ]
- [-12481392.10729374]
- [-10525306.43362539]
- [ -8567980.37928525]
- [ -8148506.84719288]
- [ -7728669.64494576]
- [ -7308490.69228608]
- [ -7002668.11618473]
- [ -6740488.25257624]
- [ -6521904.15      ]]</t>
+          <t>[[-22022535.4027288 ]
+ [-18628007.14891645]
+ [-15232397.19960686]
+ [-13036347.24861636]
+ [-10838833.33474616]
+ [ -8640079.04020417]
+ [ -8196555.36306883]
+ [ -7752668.01577874]
+ [ -7308438.9180761 ]
+ [ -7002622.80661066]
+ [ -6740460.20729645]
+ [ -6521904.15000001]]</t>
         </is>
       </c>
       <c r="E392" t="inlineStr"/>
@@ -10115,18 +10115,18 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>[[2912478.03829295]
- [2913368.53671464]
- [2914178.93705956]
- [2914562.47195462]
- [2915812.74274206]
- [2916826.92895486]
- [2913258.22708132]
- [2913491.33492363]
- [2913672.20972743]
- [2913326.56412057]
- [2913220.88894128]
- [2913056.7863397 ]]</t>
+          <t>[[2912478.79843535]
+ [2913370.6000629 ]
+ [2914181.95803   ]
+ [2914373.23933591]
+ [2915620.01605977]
+ [2916631.11636058]
+ [2913151.91443432]
+ [2913383.84844164]
+ [2913563.76216433]
+ [2913182.77045337]
+ [2913097.32191625]
+ [2912953.53243773]]</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
@@ -10149,18 +10149,18 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>[[-3354.88893598]
- [-3354.38386618]
- [-3353.78631592]
- [-3353.18841994]
- [-3351.51659653]
- [-3349.57751608]
- [-3353.27663872]
- [-3352.40846164]
- [-3351.48145929]
- [-3351.6073467 ]
- [-3350.94237559]
- [-3349.92603547]]</t>
+          <t>[[-3354.88910535]
+ [-3354.38435394]
+ [-3353.78685491]
+ [-3353.31380004]
+ [-3351.64637093]
+ [-3349.71159726]
+ [-3353.38856026]
+ [-3352.52317067]
+ [-3351.5989786 ]
+ [-3351.85152706]
+ [-3351.15217662]
+ [-3350.10114952]]</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
@@ -10183,18 +10183,18 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>[[-221470.78969143]
- [-261848.62094561]
- [-302151.9461583 ]
- [-359529.84332457]
- [-416604.10808199]
- [-473441.98997403]
- [-507393.82815695]
- [-541037.23554212]
- [-574383.91305957]
- [-605185.53960487]
- [-635457.17759528]
- [-664796.34277224]]</t>
+          <t>[[-220569.01710922]
+ [-260960.98026422]
+ [-301290.53962435]
+ [-358727.69652   ]
+ [-415883.58731605]
+ [-472829.20904664]
+ [-506861.3305803 ]
+ [-540600.60749606]
+ [-574059.73519005]
+ [-604973.87609845]
+ [-635353.44478358]
+ [-664796.34308424]]</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
@@ -10217,18 +10217,18 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>[[ 3.90437156e+08]
- [ 3.55039347e+08]
- [ 3.19551463e+08]
- [ 2.68677842e+08]
- [ 2.17617159e+08]
- [ 1.66501129e+08]
- [ 1.35828584e+08]
- [ 1.05090417e+08]
- [ 7.43152430e+07]
- [ 4.55717933e+07]
- [ 1.68097204e+07]
- [-1.19535913e+07]]</t>
+          <t>[[ 3.89670771e+08]
+ [ 3.54300903e+08]
+ [ 3.18857295e+08]
+ [ 2.68068999e+08]
+ [ 2.17107072e+08]
+ [ 1.66099234e+08]
+ [ 1.35494596e+08]
+ [ 1.04827053e+08]
+ [ 7.41240683e+07]
+ [ 4.54468801e+07]
+ [ 1.67484116e+07]
+ [-1.19535914e+07]]</t>
         </is>
       </c>
       <c r="E396" t="inlineStr"/>
@@ -10251,18 +10251,18 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>[[6490207.57735054]
- [6490131.66754472]
- [6490055.71881812]
- [6490381.58589028]
- [6490272.37815749]
- [6490163.09230999]
- [6490948.89015255]
- [6490881.61871452]
- [6490814.29035048]
- [6491090.65903365]
- [6491269.6913665 ]
- [6491533.17061257]]</t>
+          <t>[[6490143.14508574]
+ [6490067.30460949]
+ [6489991.43345686]
+ [6490331.56378666]
+ [6490222.4952242 ]
+ [6490113.35762221]
+ [6490882.60532541]
+ [6490815.47446947]
+ [6490748.28995942]
+ [6491090.68045817]
+ [6491269.79225548]
+ [6491533.41446107]]</t>
         </is>
       </c>
       <c r="E397" t="inlineStr"/>
@@ -10440,15 +10440,15 @@
  [-1070.12742489]
  [-1170.96499657]
  [-1251.15492825]
- [-1344.74637368]
+ [-1344.74637369]
  [-1422.65663273]
  [-1490.05546078]
  [-1526.70959183]
- [-1561.06149956]
- [-1593.43543743]
- [-1387.34045863]
- [-1189.05983895]
- [ -992.78218561]]</t>
+ [-1561.06149957]
+ [-1593.43543744]
+ [-1387.28433325]
+ [-1188.95291972]
+ [ -992.62302317]]</t>
         </is>
       </c>
       <c r="E403" t="inlineStr"/>
@@ -10471,7 +10471,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>[1615990.87460076]</t>
+          <t>[1906813.75593395]</t>
         </is>
       </c>
       <c r="E404" t="inlineStr"/>
@@ -10494,7 +10494,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>[46.12320934]</t>
+          <t>[43.88259595]</t>
         </is>
       </c>
       <c r="E405" t="inlineStr"/>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>[5.46616469e+09 5.46616469e+09 3.92879961e+07 0.00000000e+00
+          <t>[5.94170385e+09 5.94170385e+09 4.63179360e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -10572,10 +10572,10 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         25641.80265667
- 26386.97697153 28675.25126338 32655.96964616 38591.26669939
- 46880.01192749 58098.78836626 67607.67666409 79133.80234944
- 93148.84708092     0.             0.             0.
+          <t>[    0.             0.             0.         10649.0248982
+ 11433.68047893 13913.64689071 18484.29060266 25921.2568732
+ 37508.26520196 55196.80811561 64659.46441983 75920.48624405
+ 89398.02287441     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -10645,10 +10645,10 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         408895.04657894
- 358832.00706253 309169.72463927 259944.9735049  211222.19496991
- 163098.61556212 115712.26631898  84622.50374015  54016.71506028
-  23984.69667347      0.              0.              0.
+          <t>[     0.              0.              0.         606065.5236982
+ 522520.87758442 439444.75201437 356941.79458363 275206.47150374
+ 194558.23848618 115502.97888821  84492.305674    53928.02600694
+  23893.4954951       0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -10672,9 +10672,9 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>[0.         0.         0.         0.46567523 0.4787013  0.51850824
- 0.58732305 0.68899556 0.82921383 1.01582234 1.17103251 1.35528475
- 1.57314861 0.         0.         0.         0.         0.
+          <t>[0.         0.         0.         0.19723058 0.21155802 0.25662194
+ 0.33896949 0.47056464 0.67052636 0.96790634 1.12320999 1.30436285
+ 1.51553391 0.         0.         0.         0.         0.
  0.        ]</t>
         </is>
       </c>
@@ -10698,8 +10698,8 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>[ 0.          0.          0.         -0.         -0.11091218 -0.22802932
- -0.35790354 -0.50780061 -0.68610652 -0.90279655 -1.07445973 -1.27276995
+          <t>[ 0.          0.          0.         -0.         -0.07653036 -0.16417953
+ -0.27568172 -0.42723668 -0.64086325 -0.94759843 -1.10575802 -1.28936517
  -1.50264538  0.          0.          0.          0.          0.
   0.        ]</t>
         </is>
@@ -10724,9 +10724,9 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>[0.         0.         0.         0.46567523 0.49138218 0.56643461
- 0.68778144 0.85590674 1.07626099 1.35902047 1.58927054 1.85923105
- 2.17548608 0.         0.         0.         0.         0.
+          <t>[0.         0.         0.         0.19723058 0.22497487 0.30464691
+ 0.43692188 0.63558026 0.92752968 1.35454253 1.5761667  1.83407334
+ 2.1341945  0.         0.         0.         0.         0.
  0.        ]</t>
         </is>
       </c>
@@ -10750,9 +10750,9 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>[0.         0.         0.         0.30962156 0.31828243 0.34474956
- 0.39050366 0.45810442 0.55133377 0.67540741 0.77860468 0.90111167
- 1.04596658 0.         0.         0.         0.         0.
+          <t>[0.         0.         0.         0.13113611 0.14066225 0.17062468
+ 0.22537652 0.31287247 0.44582449 0.64354866 0.7468081  0.86725434
+ 1.0076593  0.         0.         0.         0.         0.
  0.        ]</t>
         </is>
       </c>
@@ -10776,9 +10776,9 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         408783.90920109
- 358714.56516003 309031.93860788 259768.18746945 210978.90359372
- 162746.22283177 115183.42011509  83919.7037073   53075.35671825
+          <t>[     0.              0.              0.         606045.58749872
+ 522497.9397257  439411.00141952 356882.90817242 275092.98807385
+ 194327.81561429 115022.84701532  83845.73531996  53056.07775107
   22716.363445        0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
@@ -10803,7 +10803,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>[14.08786537]</t>
+          <t>[14.62343118]</t>
         </is>
       </c>
       <c r="E417" t="inlineStr"/>
@@ -10826,10 +10826,10 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         25641.80265667
- 26386.97697153 28675.25126338 32655.96964616 38591.26669939
- 46880.01192749 58098.78836626 67607.67666409 79133.80234944
- 93148.84708092     0.             0.             0.
+          <t>[    0.             0.             0.         10649.0248982
+ 11433.68047893 13913.64689071 18484.29060266 25921.2568732
+ 37508.26520196 55196.80811561 64659.46441983 75920.48624405
+ 89398.02287441     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -10899,9 +10899,9 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>[   0.            0.            0.          111.13737785  117.4419025
-  137.78603139  176.78603545  243.29137619  352.39273034  528.84620389
-  702.80003284  941.35834202 1268.33322847    0.            0.
+          <t>[   0.            0.            0.           19.93619948   22.93785871
+   33.75059485   58.88641122  113.48342989  230.4228719   480.13187289
+  646.57035405  871.94825586 1177.1320501     0.            0.
     0.            0.            0.            0.        ]</t>
         </is>
       </c>
@@ -10925,10 +10925,10 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         408895.04657894
- 358832.00706253 309169.72463927 259944.9735049  211222.19496991
- 163098.61556212 115712.26631898  84622.50374015  54016.71506028
-  23984.69667347      0.              0.              0.
+          <t>[     0.              0.              0.         606065.5236982
+ 522520.87758442 439444.75201437 356941.79458363 275206.47150374
+ 194558.23848618 115502.97888821  84492.305674    53928.02600694
+  23893.4954951       0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -10952,8 +10952,8 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>[-70.         -60.         -50.         -40.         -35.
- -30.         -25.         -20.         -15.         -10.
+          <t>[-90.         -80.         -70.         -60.         -51.66666667
+ -43.33333333 -35.         -26.66666667 -18.33333333 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
         </is>
@@ -11116,8 +11116,8 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>[-70.         -60.         -50.         -40.         -35.
- -30.         -25.         -20.         -15.         -10.
+          <t>[-90.         -80.         -70.         -60.         -51.66666667
+ -43.33333333 -35.         -26.66666667 -18.33333333 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
         </is>
@@ -11211,10 +11211,10 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         -25641.80265667
- -26386.97697153 -28675.25126338 -32655.96964616 -38591.26669939
- -46880.01192749 -58098.78836626 -67607.67666409 -79133.80234944
- -93148.84708092      0.              0.              0.
+          <t>[     0.              0.              0.         -10649.0248982
+ -11433.68047893 -13913.64689071 -18484.29060266 -25921.2568732
+ -37508.26520196 -55196.80811561 -64659.46441983 -75920.48624405
+ -89398.02287441      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -11238,10 +11238,10 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         408895.04657894
- 358832.00706253 309169.72463927 259944.9735049  211222.19496991
- 163098.61556212 115712.26631898  84622.50374015  54016.71506028
-  23984.69667347      0.              0.              0.
+          <t>[     0.              0.              0.         606065.5236982
+ 522520.87758442 439444.75201437 356941.79458363 275206.47150374
+ 194558.23848618 115502.97888821  84492.305674    53928.02600694
+  23893.4954951       0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -11261,8 +11261,7 @@
       <c r="C436" t="inlineStr"/>
       <c r="D436" t="inlineStr">
         <is>
-          <t>[123.44339546  63.55192058  70.48955273  77.70089888  84.73675871
-  90.96204733]</t>
+          <t>[66.68651918 50.         50.         56.30711566 62.70326934 68.49954523]</t>
         </is>
       </c>
       <c r="E436" t="inlineStr"/>
@@ -11319,7 +11318,7 @@
       <c r="C439" t="inlineStr"/>
       <c r="D439" t="inlineStr">
         <is>
-          <t>[1.94240228 0.90157929 0.90719096 0.91696803 0.93156169]</t>
+          <t>[1.33373038 1.         0.88798724 0.8979933  0.91538227]</t>
         </is>
       </c>
       <c r="E439" t="inlineStr"/>
@@ -11386,7 +11385,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>[  0.   0. -35.]</t>
+          <t>[  0.   0. -45.]</t>
         </is>
       </c>
       <c r="E442" t="inlineStr"/>
@@ -11409,7 +11408,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>[5497.78714377]</t>
+          <t>[7068.58347058]</t>
         </is>
       </c>
       <c r="E443" t="inlineStr"/>
@@ -11432,7 +11431,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>[55260942.8765595]</t>
+          <t>[71049783.69864927]</t>
         </is>
       </c>
       <c r="E444" t="inlineStr"/>
@@ -11451,7 +11450,7 @@
       <c r="C445" t="inlineStr"/>
       <c r="D445" t="inlineStr">
         <is>
-          <t>[4.]</t>
+          <t>[5.]</t>
         </is>
       </c>
       <c r="E445" t="inlineStr"/>
@@ -11543,8 +11542,8 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>[5.63523182e+06 5.63523182e+06 1.70833333e+05 2.30116921e+09
- 2.30116921e+09 0.00000000e+00]</t>
+          <t>[7.24529806e+06 7.24529806e+06 1.70833333e+05 4.89082318e+09
+ 4.89082318e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E449" t="inlineStr"/>
@@ -11590,8 +11589,8 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>[-70.         -60.         -50.         -40.         -35.
- -30.         -25.         -20.         -15.         -10.
+          <t>[-90.         -80.         -70.         -60.         -51.66666667
+ -43.33333333 -35.         -26.66666667 -18.33333333 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
         </is>
@@ -11640,7 +11639,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>[30. 15. 15. 10. 10.  5.]</t>
+          <t>[30. 25. 25. 10. 10.  5.]</t>
         </is>
       </c>
       <c r="E453" t="inlineStr"/>
@@ -11771,7 +11770,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>[-70. -40. -25. -10.   0.  10.  15.]</t>
+          <t>[-90. -60. -35. -10.   0.  10.  15.]</t>
         </is>
       </c>
       <c r="E459" t="inlineStr"/>
@@ -11790,7 +11789,7 @@
       <c r="C460" t="inlineStr"/>
       <c r="D460" t="inlineStr">
         <is>
-          <t>[0.         0.33333333 0.55555556 0.74074074 0.88888889 1.        ]</t>
+          <t>[0.         0.31428571 0.6        0.8        0.91428571 1.        ]</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -11871,8 +11870,8 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>[21068.22265624 40607.9945653  36668.93187304 33310.15248257
- 30577.41051673 28508.02494498]</t>
+          <t>[38728.29727107 51390.67528225 51390.67528225 45738.58247733
+ 41148.69417988 37718.4400927 ]</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -11899,8 +11898,8 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>[259120.56983445 491876.95285432 445541.05064637 405797.40958319
- 373302.79945689 348601.3054781 ]</t>
+          <t>[469802.64491342 617202.01013978 617202.01013978 551785.30072907
+ 498214.20431695 457915.51975979]</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -11927,8 +11926,8 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>[259120.56983445 491876.95285432 445541.05064637 405797.40958319
- 373302.79945689 348601.3054781 ]</t>
+          <t>[469802.64491342 617202.01013978 617202.01013978 551785.30072907
+ 498214.20431695 457915.51975979]</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -11955,8 +11954,8 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>[6.20945530e+12 1.17871304e+13 1.06767565e+13 9.72435681e+12
- 8.94566977e+12 8.35373366e+12]</t>
+          <t>[1.12581511e+13 1.47903669e+13 1.47903669e+13 1.32227486e+13
+ 1.19389936e+13 1.09732931e+13]</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -11983,8 +11982,8 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>[6.20945530e+12 1.17871304e+13 1.06767565e+13 9.72435681e+12
- 8.94566977e+12 8.35373366e+12]</t>
+          <t>[1.12581511e+13 1.47903669e+13 1.47903669e+13 1.32227486e+13
+ 1.19389936e+13 1.09732931e+13]</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -12011,8 +12010,8 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>[4.92409806e+12 9.34719443e+12 8.46666794e+12 7.71141495e+12
- 7.09391613e+12 6.62451079e+12]</t>
+          <t>[8.92771381e+12 1.17287609e+13 1.17287609e+13 1.04856397e+13
+ 9.46762195e+12 8.70182140e+12]</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -12039,8 +12038,8 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>[5.04869941e+11 9.73112738e+11 8.78718713e+11 7.98230349e+11
- 7.32744081e+11 6.83154204e+11]</t>
+          <t>[9.28068470e+11 1.23150432e+12 1.23150432e+12 1.09605997e+12
+ 9.86069834e+11 9.03868682e+11]</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -12148,12 +12147,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.39614163 0.16104472 0.16104472 0.        ]
- [0.         0.         0.20552603 0.08483829 0.08483829 0.        ]
- [0.         0.         0.22760412 0.0936614  0.0936614  0.        ]
- [0.         0.         0.25055424 0.10283456 0.10283456 0.        ]
- [0.         0.         0.27294659 0.11178593 0.11178593 0.        ]
- [0.         0.         0.29275967 0.11970695 0.11970695 0.        ]]</t>
+          <t>[[0.         0.         0.21550134 0.08882453 0.08882453 0.        ]
+ [0.         0.         0.162403   0.06761158 0.06761158 0.        ]
+ [0.         0.         0.162403   0.06761158 0.06761158 0.        ]
+ [0.         0.         0.18247177 0.07562724 0.07562724 0.        ]
+ [0.         0.         0.20282539 0.08375915 0.08375915 0.        ]
+ [0.         0.         0.22127108 0.09113035 0.09113035 0.        ]]</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
@@ -12176,12 +12175,12 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>[[0.65002429 0.65002429 0.         0.         0.         0.08052236]
- [0.33600138 0.33600138 0.         0.         0.         0.04241915]
- [0.37238128 0.37238128 0.         0.         0.         0.0468307 ]
- [0.41019452 0.41019452 0.         0.         0.         0.05141728]
- [0.44708611 0.44708611 0.         0.         0.         0.05589296]
- [0.47972664 0.47972664 0.         0.         0.         0.05985348]]</t>
+          <t>[[0.35243902 0.35243902 0.         0.         0.         0.04441227]
+ [0.26492886 0.26492886 0.         0.         0.         0.03380579]
+ [0.26492886 0.26492886 0.         0.         0.         0.03380579]
+ [0.29800798 0.29800798 0.         0.         0.         0.03781362]
+ [0.33155103 0.33155103 0.         0.         0.         0.04187958]
+ [0.3619462  0.3619462  0.         0.         0.         0.04556517]]</t>
         </is>
       </c>
       <c r="E474" t="inlineStr"/>
@@ -12204,7 +12203,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>[1298.67009104]</t>
+          <t>[1565.32396324]</t>
         </is>
       </c>
       <c r="E475" t="inlineStr"/>
@@ -12227,7 +12226,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>[6061626.50731356]</t>
+          <t>[10999229.32270324]</t>
         </is>
       </c>
       <c r="E476" t="inlineStr"/>
@@ -12250,7 +12249,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>[2572616.33098013]</t>
+          <t>[4788847.64928001]</t>
         </is>
       </c>
       <c r="E477" t="inlineStr"/>
@@ -12273,7 +12272,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>[45.69033356]</t>
+          <t>[53.4683633]</t>
         </is>
       </c>
       <c r="E478" t="inlineStr"/>
@@ -12296,7 +12295,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>[6.71844100e+09 6.71844100e+09 6.27377915e+07 0.00000000e+00
+          <t>[1.77217701e+10 1.77217701e+10 1.15487505e+08 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -12343,9 +12342,9 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>[0.0866794  0.0866794  0.0866794  0.16836627 0.16836627 0.16836627
- 0.15179554 0.15179554 0.15179554 0.13770754 0.13770754 0.13770754
- 0.12627342 0.12627342 0.12627342 0.11763148 0.11763148 0.11763148]</t>
+          <t>[0.16045222 0.16045222 0.16045222 0.214      0.214      0.214
+ 0.214      0.214      0.214      0.19002927 0.19002927 0.19002927
+ 0.17064501 0.17064501 0.17064501 0.15620542 0.15620542 0.15620542]</t>
         </is>
       </c>
       <c r="E481" t="inlineStr"/>
@@ -12393,7 +12392,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>[2672616.33098013]</t>
+          <t>[4888847.64928001]</t>
         </is>
       </c>
       <c r="E483" t="inlineStr"/>
@@ -12416,7 +12415,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>[6561626.50731356]</t>
+          <t>[11499229.32270324]</t>
         </is>
       </c>
       <c r="E484" t="inlineStr"/>
@@ -12439,7 +12438,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>[47.16116444]</t>
+          <t>[54.5224284]</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -12462,7 +12461,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>[7.44219100e+09 7.44219100e+09 6.52377915e+07 0.00000000e+00
+          <t>[1.88255201e+10 1.88255201e+10 1.17987505e+08 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -12486,7 +12485,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>[4288607.20558089]</t>
+          <t>[6795661.40521396]</t>
         </is>
       </c>
       <c r="E487" t="inlineStr"/>
@@ -12509,7 +12508,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>[10738125.70635013]</t>
+          <t>[16312873.07112904]</t>
         </is>
       </c>
       <c r="E488" t="inlineStr"/>
@@ -12532,8 +12531,8 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>[10.         10.         10.          5.          5.          5.
-  5.          5.          5.          3.33333333  3.33333333  3.33333333
+          <t>[10.         10.         10.          8.33333333  8.33333333  8.33333333
+  8.33333333  8.33333333  8.33333333  3.33333333  3.33333333  3.33333333
   3.33333333  3.33333333  3.33333333  1.66666667  1.66666667  1.66666667
  12.07132867 12.07132867 12.07132867 17.24475524 17.24475524 17.24475524
  10.34685315 10.34685315 10.34685315  9.65706294  9.65706294  9.65706294]</t>
@@ -12559,7 +12558,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>[0.21999998]</t>
+          <t>[0.22]</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
@@ -12582,7 +12581,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>[0.22117252]</t>
+          <t>[0.22098618]</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
@@ -12605,7 +12604,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>[0.21999998 0.22117252 0.90317358 0.97298769 0.98295547 1.68955333]</t>
+          <t>[0.22       0.22098618 0.80158331 0.84286995 1.00988225 1.52861382]</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
@@ -12628,7 +12627,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>[0.22117252 0.97298769 1.88945433]</t>
+          <t>[0.22098618 0.84286995 1.73656129]</t>
         </is>
       </c>
       <c r="E493" t="inlineStr"/>
@@ -12651,7 +12650,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>[0.21999998 0.90317358 1.68955333]</t>
+          <t>[0.22       0.80158331 1.52861382]</t>
         </is>
       </c>
       <c r="E494" t="inlineStr"/>
@@ -12674,7 +12673,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>[4.36074072 0.         0.        ]</t>
+          <t>[4.37264694 0.         0.        ]</t>
         </is>
       </c>
       <c r="E495" t="inlineStr"/>
@@ -12693,9 +12692,9 @@
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>[[ 0.99472358 -0.16023414 -0.32870223  1.17922658 -0.6850138 ]
- [-2.77222052  3.14631721 -0.2785878   1.62148447 -0.71699336]
- [-5.7324365  11.367196    6.50286733 -2.46112486 -8.67650197]]</t>
+          <t>[[  1.01891642   0.04176439  -1.52262259   2.80537945  -1.34343768]
+ [ -2.72607642   2.72750613   1.05910408   0.15599555  -0.21652934]
+ [ -7.86802483  16.79738802   6.81294023   4.54813795 -19.29044138]]</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
@@ -12714,9 +12713,9 @@
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>[[ 0.9863094  -0.1562201  -0.32167562  1.15856585 -0.66697953]
- [-2.77823866  2.94203038  0.01279914  0.56588295  0.25752619]
- [-4.64917282  8.52750789  1.69766591  4.84698349 -9.42298446]]</t>
+          <t>[[  1.01069465   0.04245154  -1.49960308   2.76045013  -1.31399324]
+ [ -2.72797657   2.5053942    1.69426914  -1.32860956   0.85692278]
+ [ -5.67758349  11.476706    -2.5397666   17.27467073 -19.53402663]]</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
@@ -12735,7 +12734,7 @@
       <c r="C498" t="inlineStr"/>
       <c r="D498" t="inlineStr">
         <is>
-          <t>[[ -2.61149682  14.27745736 -38.88968654  50.28408062 -22.06035462]
+          <t>[[ -2.06165884   9.93313146 -29.6424246   41.33326013 -18.56230815]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -12756,9 +12755,12 @@
       <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr">
         <is>
-          <t>[[  0.69507743   1.51878011  -3.75926619   4.37339216  -1.82798351]
- [ -0.17668525   2.75396054  -5.73840076   7.03048868  -2.86936321]
- [  3.07689152  -2.72276474  13.5928268  -16.85605429   3.90910072]]</t>
+          <t>[[ 5.98452199e-01  1.74862060e+00 -4.15584446e+00  4.81603267e+00
+  -2.00726101e+00]
+ [ 6.23018306e-03  2.58263713e+00 -5.51016304e+00  6.65624747e+00
+  -2.73495174e+00]
+ [ 2.53772592e+01 -3.45009104e+01  1.18604132e+02 -1.50373825e+02
+   4.18933442e+01]]</t>
         </is>
       </c>
       <c r="E499" t="inlineStr"/>
@@ -12777,9 +12779,9 @@
       <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr">
         <is>
-          <t>[[ 0.68398756  1.53726235 -3.80329167  4.42118255 -1.8391408 ]
- [-0.26944419  2.93745583 -6.33280008  7.63094352 -2.96615508]
- [ 1.74130347 -0.6749436   6.18081439 -6.9057367   0.65856244]]</t>
+          <t>[[  0.5880368    1.76506494  -4.19627674   4.85840623  -2.01523122]
+ [ -0.06262691   2.70076618  -5.88632384   7.02510358  -2.77691901]
+ [  4.38802268  -4.24079042  17.20443614 -19.97851826   3.62684987]]</t>
         </is>
       </c>
       <c r="E500" t="inlineStr"/>
@@ -12798,7 +12800,7 @@
       <c r="C501" t="inlineStr"/>
       <c r="D501" t="inlineStr">
         <is>
-          <t>[[ -3.70865014  29.65194921 -80.78874353  95.59875204 -39.75330759]
+          <t>[[ -3.97648586  31.41958136 -84.89942048  99.40357391 -40.94724894]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -12823,37 +12825,37 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>[[2.17850603e-04]
- [5.10404716e-04]
- [9.14940440e-05]
- [4.75098112e-03]
- [1.00424434e-02]
- [1.64269334e-02]
- [2.38750304e-02]
- [3.24173525e-02]
- [4.20687766e-02]
- [5.27966509e-02]
- [6.05577488e-02]
- [6.88175431e-02]
- [7.75653874e-02]
- [8.68158946e-02]
- [9.65737970e-02]
- [1.06827523e-01]
- [1.12143017e-01]
- [1.17586601e-01]
- [1.23156724e-01]
- [1.67973109e-01]
- [2.20225803e-01]
- [2.79179341e-01]
- [3.79548636e-01]
- [4.99742265e-01]
- [6.35523483e-01]
- [7.27097806e-01]
- [8.27738367e-01]
- [9.34840038e-01]
- [1.03934338e+00]
- [1.14619437e+00]
- [1.25095495e+00]]</t>
+          <t>[[3.48861050e-04]
+ [4.89928613e-04]
+ [2.90596740e-04]
+ [4.42660467e-03]
+ [1.16182357e-02]
+ [2.14509747e-02]
+ [3.38156820e-02]
+ [4.86027918e-02]
+ [6.57024331e-02]
+ [8.50045478e-02]
+ [9.33412644e-02]
+ [1.02044572e-01]
+ [1.11106597e-01]
+ [1.20542425e-01]
+ [1.30358122e-01]
+ [1.40544981e-01]
+ [1.45780757e-01]
+ [1.51113938e-01]
+ [1.56543341e-01]
+ [1.99436813e-01]
+ [2.48277597e-01]
+ [3.02476011e-01]
+ [3.93887916e-01]
+ [5.02904374e-01]
+ [6.25760813e-01]
+ [7.08810266e-01]
+ [8.00396686e-01]
+ [8.98066414e-01]
+ [9.93701481e-01]
+ [1.09167563e+00]
+ [1.18756097e+00]]</t>
         </is>
       </c>
       <c r="E502" t="inlineStr"/>
@@ -12876,7 +12878,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>[1.25095495]</t>
+          <t>[1.18756097]</t>
         </is>
       </c>
       <c r="E503" t="inlineStr"/>
@@ -12899,24 +12901,24 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>[[-48775515.17122245]
- [-46709495.78989569]
- [-44516549.48992449]
- [-42396701.45654713]
- [-40269345.64631078]
- [-38126474.08100807]
- [-36152198.91490456]
- [-34142719.23414126]
- [-32084958.45406674]
- [-30788708.32647578]
- [-29457750.42360511]
- [-28084649.58774946]
- [-26931446.77713246]
- [-25931939.55648188]
- [-24932432.33583146]
- [-24466500.50774735]
- [-24000568.67966206]
- [-23534636.85157788]]</t>
+          <t>[[-71608969.72190899]
+ [-67811145.23262818]
+ [-63960608.07452876]
+ [-59669900.98597158]
+ [-55365727.32734624]
+ [-51032469.90504859]
+ [-46649681.09407951]
+ [-42188418.37979001]
+ [-37606394.00241446]
+ [-35913539.09859414]
+ [-34186490.12378363]
+ [-32418622.54721936]
+ [-30926056.89708709]
+ [-29580997.98349654]
+ [-28235939.06990544]
+ [-27619473.28119707]
+ [-27003007.49248839]
+ [-26386541.70377922]]</t>
         </is>
       </c>
       <c r="E504" t="inlineStr"/>
@@ -12939,24 +12941,24 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>[[ -4838790.51253736]
- [-12998315.63162183]
- [-13890972.61333862]
- [  2913098.30281492]
- [  2913334.11894291]
- [  2913570.97449965]
- [  2913660.08874786]
- [  2913911.17596972]
- [  2914176.73153446]
- [  2913481.6662797 ]
- [  2913620.47046295]
- [  2913771.69808733]
- [  2913648.89709279]
- [  2913439.1945597 ]
- [  2913513.53137175]
- [  2912719.22737722]
- [  2912737.1317083 ]
- [  2912754.81930069]]</t>
+          <t>[[ -7748708.53827312]
+ [-15580790.42736386]
+ [-12743432.48041843]
+ [  2913827.63900728]
+ [  2914514.21046665]
+ [  2915187.41996965]
+ [  2915857.44737771]
+ [  2916539.93966667]
+ [  2917259.38795378]
+ [  2914089.18820486]
+ [  2914225.90983179]
+ [  2914373.03200845]
+ [  2914159.75375687]
+ [  2913956.63410349]
+ [  2914031.51946719]
+ [  2912944.53295832]
+ [  2912962.54714982]
+ [  2912980.34241901]]</t>
         </is>
       </c>
       <c r="E505" t="inlineStr"/>
@@ -12979,24 +12981,24 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>[[ -205.57487605]
- [ -880.36942023]
- [-2345.02353043]
- [-3355.06277995]
- [-3355.04378377]
- [-3355.01736593]
- [-3354.99114107]
- [-3354.94790047]
- [-3354.89465913]
- [-3354.93149676]
- [-3354.89796193]
- [-3354.85932523]
- [-3354.85331215]
- [-3354.86115566]
- [-3354.82904068]
- [-3354.94903518]
- [-3354.94029345]
- [-3354.93130987]]</t>
+          <t>[[  530.300898  ]
+ [  642.21537488]
+ [ -909.58811166]
+ [-3355.25747086]
+ [-3355.27218137]
+ [-3355.25579311]
+ [-3355.20767403]
+ [-3355.12623704]
+ [-3355.00813913]
+ [-3355.01262507]
+ [-3354.98324904]
+ [-3354.95000488]
+ [-3354.93599437]
+ [-3354.9237232 ]
+ [-3354.89157603]
+ [-3354.97982541]
+ [-3354.97107806]
+ [-3354.96208676]]</t>
         </is>
       </c>
       <c r="E506" t="inlineStr"/>
@@ -13019,24 +13021,24 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>[[    239.28571513]
- [  -4201.92835476]
- [ -26643.36436015]
- [ -44959.09302157]
- [ -61728.08420473]
- [ -78492.46811569]
- [ -95251.46732249]
- [-112003.77821111]
- [-128749.00215123]
- [-139908.69752909]
- [-151064.77268845]
- [-162217.28470695]
- [-173366.3081323 ]
- [-184511.32896581]
- [-195652.22794063]
- [-201221.39487741]
- [-206789.46240332]
- [-212356.43924276]]</t>
+          <t>[[  10932.91082327]
+ [  32213.16090038]
+ [  35499.34555078]
+ [  12565.61024464]
+ [ -15438.75512045]
+ [ -43436.09549503]
+ [ -71420.7058862 ]
+ [ -99388.49434905]
+ [-127337.04102449]
+ [-138511.16000347]
+ [-149681.8823925 ]
+ [-160849.20444229]
+ [-172013.19942387]
+ [-183173.46801172]
+ [-194330.0386298 ]
+ [-199907.16452505]
+ [-205483.31215029]
+ [-211058.49616375]]</t>
         </is>
       </c>
       <c r="E507" t="inlineStr"/>
@@ -13059,24 +13061,24 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>[[4.65409225e+07]
- [2.39603927e+08]
- [4.93459380e+08]
- [5.51347599e+08]
- [5.36517034e+08]
- [5.21657221e+08]
- [5.06771650e+08]
- [4.91862848e+08]
- [4.76936687e+08]
- [4.66981022e+08]
- [4.57020126e+08]
- [4.47055847e+08]
- [4.37089460e+08]
- [4.27120074e+08]
- [4.17147587e+08]
- [4.12161747e+08]
- [4.07175268e+08]
- [4.02188288e+08]]</t>
+          <t>[[9.38515229e+07]
+ [3.41628800e+08]
+ [5.72830489e+08]
+ [6.01793530e+08]
+ [5.76940324e+08]
+ [5.51989258e+08]
+ [5.26968151e+08]
+ [5.01903977e+08]
+ [4.76823172e+08]
+ [4.66802689e+08]
+ [4.56783535e+08]
+ [4.46767149e+08]
+ [4.36754663e+08]
+ [4.26744511e+08]
+ [4.16736586e+08]
+ [4.11735437e+08]
+ [4.06734844e+08]
+ [4.01734940e+08]]</t>
         </is>
       </c>
       <c r="E508" t="inlineStr"/>
@@ -13099,24 +13101,24 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>[[1088059.83940708]
- [2368885.78641621]
- [4069412.29915189]
- [6490274.94327118]
- [6490241.6142683 ]
- [6490208.16756958]
- [6490238.8692266 ]
- [6490204.49494568]
- [6490169.50808973]
- [6490190.00902438]
- [6490165.16451033]
- [6490139.65496933]
- [6490161.44436534]
- [6490137.36641372]
- [6490116.49764749]
- [6490133.41649313]
- [6490122.98210603]
- [6490112.54775241]]</t>
+          <t>[[1289024.68199321]
+ [2703990.37622579]
+ [4383165.17669898]
+ [6490369.6562311 ]
+ [6490316.34914177]
+ [6490262.8756256 ]
+ [6490209.04167321]
+ [6490154.59327916]
+ [6490099.17092397]
+ [6490099.98019947]
+ [6490076.35130683]
+ [6490052.24531017]
+ [6490078.04280445]
+ [6490054.8858834 ]
+ [6490034.01764767]
+ [6490052.98938775]
+ [6490042.55525931]
+ [6490032.12116441]]</t>
         </is>
       </c>
       <c r="E509" t="inlineStr"/>
@@ -13139,9 +13141,9 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>[[ 2.91309830e+06]
- [-3.35506278e+03]
- [-4.45165495e+07]]</t>
+          <t>[[ 2.91382764e+06]
+ [-3.35525747e+03]
+ [-6.39606081e+07]]</t>
         </is>
       </c>
       <c r="E510" t="inlineStr"/>
@@ -13164,9 +13166,9 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>[[-2.81864564e+04]
- [ 5.66143038e+08]
- [ 6.49027494e+06]]</t>
+          <t>[[4.05696902e+04]
+ [6.26519980e+08]
+ [6.49036966e+06]]</t>
         </is>
       </c>
       <c r="E511" t="inlineStr"/>
@@ -13189,8 +13191,8 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>[-70.         -60.         -50.         -40.         -35.
- -30.         -25.         -20.         -15.         -10.
+          <t>[-90.         -80.         -70.         -60.         -51.66666667
+ -43.33333333 -35.         -26.66666667 -18.33333333 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.          27.07132867
   39.14265734  51.21398601  68.45874126  85.7034965  102.94825175
@@ -13222,8 +13224,8 @@
  10.         10.         10.         10.         10.         10.
  10.         10.         10.         10.         10.         10.
  10.         10.         10.         10.         10.         10.
- 10.         10.         10.         10.          8.66666667  7.33333333
-  6.        ]</t>
+ 10.         10.         10.         10.          8.66633333  7.33266667
+  5.999     ]</t>
         </is>
       </c>
       <c r="E513" t="inlineStr"/>
@@ -13246,11 +13248,11 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>[0.08100879 0.08100879 0.08100879 0.15735166 0.15735166 0.15735166
- 0.14186499 0.14186499 0.14186499 0.12869864 0.12869864 0.12869864
- 0.11801254 0.11801254 0.11801254 0.10993596 0.10993596 0.10993596
- 0.08762876 0.08762876 0.08762876 0.04377485 0.04377485 0.04377485
- 0.01520981 0.01520981 0.01520981 0.01259849 0.01259849 0.01259849]</t>
+          <t>[0.14995535 0.14995535 0.14995535 0.2        0.2        0.2
+ 0.2        0.2        0.2        0.17759745 0.17759745 0.17759745
+ 0.15948132 0.15948132 0.15948132 0.14598637 0.14598637 0.14598637
+ 0.11014967 0.11014967 0.11014967 0.04927097 0.04927097 0.04927097
+ 0.01611666 0.01611666 0.01611666 0.01259845 0.01259845 0.01259845]</t>
         </is>
       </c>
       <c r="E514" t="inlineStr"/>
@@ -13349,11 +13351,11 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>[2.70105419 2.70105419 2.70105419 5.20615315 5.20615315 5.20615315
- 4.70114511 4.70114511 4.70114511 4.27053237 4.27053237 4.27053237
- 3.92018084 3.92018084 3.92018084 3.65487499 3.65487499 3.65487499
- 2.919832   2.919832   2.919832   1.46505193 1.46505193 1.46505193
- 0.51050063 0.51050063 0.51050063 0.39473191 0.33826541 0.28179892]</t>
+          <t>[4.96516632 4.96516632 4.96516632 6.58854811 6.58854811 6.58854811
+ 6.58854811 6.58854811 6.58854811 5.86392083 5.86392083 5.86392083
+ 5.27547361 5.27547361 5.27547361 4.83569745 4.83569745 4.83569745
+ 3.6619009  3.6619009  3.6619009  1.64808509 1.64808509 1.64808509
+ 0.540889   0.540889   0.540889   0.39472352 0.3382431  0.28176268]</t>
         </is>
       </c>
       <c r="E518" t="inlineStr"/>
@@ -13376,11 +13378,11 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>[1.53840405 1.53840405 1.53840405 2.97617823 2.97617823 2.97617823
- 2.68541961 2.68541961 2.68541961 2.43786778 2.43786778 2.43786778
- 2.23670558 2.23670558 2.23670558 2.08452045 2.08452045 2.08452045
- 1.66352846 1.66352846 1.66352846 0.83299694 0.83299694 0.83299694
- 0.28988787 0.28988787 0.28988787 0.2241316  0.19208866 0.16004575]</t>
+          <t>[2.83737031 2.83737031 2.83737031 3.77459819 3.77459819 3.77459819
+ 3.77459819 3.77459819 3.77459819 3.3556148  3.3556148  3.3556148
+ 3.016127   3.016127   3.016127   2.76284156 2.76284156 2.76284156
+ 2.08854905 2.08854905 2.08854905 0.93730027 0.93730027 0.93730027
+ 0.30715626 0.30715626 0.30715626 0.22412684 0.19207599 0.16002519]</t>
         </is>
       </c>
       <c r="E519" t="inlineStr"/>
@@ -13403,11 +13405,11 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>[1.53840405 1.53840405 1.53840405 2.97617823 2.97617823 2.97617823
- 2.68541961 2.68541961 2.68541961 2.43786778 2.43786778 2.43786778
- 2.23670558 2.23670558 2.23670558 2.08452045 2.08452045 2.08452045
- 1.66352846 1.66352846 1.66352846 0.83299694 0.83299694 0.83299694
- 0.28988787 0.28988787 0.28988787 0.2241316  0.19208866 0.16004575]</t>
+          <t>[2.83737031 2.83737031 2.83737031 3.77459819 3.77459819 3.77459819
+ 3.77459819 3.77459819 3.77459819 3.3556148  3.3556148  3.3556148
+ 3.016127   3.016127   3.016127   2.76284156 2.76284156 2.76284156
+ 2.08854905 2.08854905 2.08854905 0.93730027 0.93730027 0.93730027
+ 0.30715626 0.30715626 0.30715626 0.22412684 0.19207599 0.16002519]</t>
         </is>
       </c>
       <c r="E520" t="inlineStr"/>
@@ -13430,12 +13432,12 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>[ 66.44117175  66.44117175  66.44117175 126.1222956  126.1222956
- 126.1222956  114.24129504 114.24129504 114.24129504 104.05061784
- 104.05061784 104.05061784  95.71866653  95.71866653  95.71866653
-  89.38495012  89.38495012  89.38495012  71.72770406  71.72770406
-  71.72770405  36.30703982  36.30703982  36.30703982  12.72375172
-  12.72375172  12.72375172   8.57320761   5.39522693   3.11928735]</t>
+          <t>[120.46221664 120.46221664 120.46221664 158.25692568 158.25692568
+ 158.25692568 158.25692568 158.25692568 158.25692568 141.48341044
+ 141.48341044 141.48341044 127.74723188 127.74723188 127.74723188
+ 117.41423584 117.41423584 117.41423584  89.55295129  89.55295129
+  89.55295129  40.7981141   40.7981141   40.7981141   13.47870869
+  13.47870869  13.47870869   8.57271897   5.39419571   3.11810511]</t>
         </is>
       </c>
       <c r="E521" t="inlineStr"/>
@@ -13458,11 +13460,11 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>[33.22058588 33.22058588 33.22058588 63.0611478  63.0611478  63.0611478
- 57.12064752 57.12064752 57.12064752 52.02530892 52.02530892 52.02530892
- 47.85933326 47.85933326 47.85933326 44.69247506 44.69247506 44.69247506
- 35.86385203 35.86385203 35.86385203 18.15351991 18.15351991 18.15351991
-  6.36187586  6.36187586  6.36187586  4.28660381  2.69761346  1.55964367]</t>
+          <t>[60.23110832 60.23110832 60.23110832 79.12846284 79.12846284 79.12846284
+ 79.12846284 79.12846284 79.12846284 70.74170522 70.74170522 70.74170522
+ 63.87361594 63.87361594 63.87361594 58.70711792 58.70711792 58.70711792
+ 44.77647565 44.77647565 44.77647565 20.39905705 20.39905705 20.39905705
+  6.73935434  6.73935434  6.73935434  4.28635948  2.69709786  1.55905255]</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -13485,11 +13487,11 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>[33.22058588 33.22058588 33.22058588 63.0611478  63.0611478  63.0611478
- 57.12064752 57.12064752 57.12064752 52.02530892 52.02530892 52.02530892
- 47.85933326 47.85933326 47.85933326 44.69247506 44.69247506 44.69247506
- 35.86385203 35.86385203 35.86385203 18.15351991 18.15351991 18.15351991
-  6.36187586  6.36187586  6.36187586  4.28660381  2.69761346  1.55964367]</t>
+          <t>[60.23110832 60.23110832 60.23110832 79.12846284 79.12846284 79.12846284
+ 79.12846284 79.12846284 79.12846284 70.74170522 70.74170522 70.74170522
+ 63.87361594 63.87361594 63.87361594 58.70711792 58.70711792 58.70711792
+ 44.77647565 44.77647565 44.77647565 20.39905705 20.39905705 20.39905705
+  6.73935434  6.73935434  6.73935434  4.28635948  2.69709786  1.55905255]</t>
         </is>
       </c>
       <c r="E523" t="inlineStr"/>
@@ -13538,7 +13540,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>[202.96]</t>
+          <t>[222.96]</t>
         </is>
       </c>
       <c r="E525" t="inlineStr"/>
@@ -13564,16 +13566,16 @@
           <t>[[0.00000000e+00]
  [0.00000000e+00]
  [0.00000000e+00]
- [4.08895047e+05]
- [3.58832007e+05]
- [3.09169725e+05]
- [2.59944974e+05]
- [2.11222195e+05]
- [1.63098616e+05]
- [1.15712266e+05]
- [8.46225037e+04]
- [5.40167151e+04]
- [2.39846967e+04]
+ [6.06065524e+05]
+ [5.22520878e+05]
+ [4.39444752e+05]
+ [3.56941795e+05]
+ [2.75206472e+05]
+ [1.94558238e+05]
+ [1.15502979e+05]
+ [8.44923057e+04]
+ [5.39280260e+04]
+ [2.38934955e+04]
  [0.00000000e+00]
  [0.00000000e+00]
  [0.00000000e+00]
@@ -13614,36 +13616,36 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[[-4.87755152e+07]
- [-4.67094958e+07]
- [-4.45165495e+07]
- [-4.23967015e+07]
- [-4.02693456e+07]
- [-3.81264741e+07]
- [-3.61521989e+07]
- [-3.41427192e+07]
- [-3.20849585e+07]
- [-3.07887083e+07]
- [-2.94577504e+07]
- [-2.80846496e+07]
- [-2.69314468e+07]
- [-2.59319396e+07]
- [-2.49324323e+07]
- [-2.44665005e+07]
- [-2.40005687e+07]
- [-2.35346369e+07]
- [-1.98524951e+07]
- [-1.71445921e+07]
- [-1.44352372e+07]
- [-1.24820989e+07]
- [-1.05274772e+07]
- [-8.57139156e+06]
- [-8.15245096e+06]
- [-7.73297743e+06]
- [-7.31314022e+06]
- [-7.00648722e+06]
- [-6.74237434e+06]
- [ 9.89530236e-10]]</t>
+          <t>[[-7.16089697e+07]
+ [-6.78111452e+07]
+ [-6.39606081e+07]
+ [-5.96699010e+07]
+ [-5.53657273e+07]
+ [-5.10324699e+07]
+ [-4.66496811e+07]
+ [-4.21884184e+07]
+ [-3.76063940e+07]
+ [-3.59135391e+07]
+ [-3.41864901e+07]
+ [-3.24186225e+07]
+ [-3.09260569e+07]
+ [-2.95809980e+07]
+ [-2.82359391e+07]
+ [-2.76194733e+07]
+ [-2.70030075e+07]
+ [-2.63865417e+07]
+ [-2.20192266e+07]
+ [-1.86261501e+07]
+ [-1.52316219e+07]
+ [-1.30370554e+07]
+ [-1.08410054e+07]
+ [-8.64349149e+06]
+ [-8.20050075e+06]
+ [-7.75697707e+06]
+ [-7.31308972e+06]
+ [-7.00644291e+06]
+ [-6.74234679e+06]
+ [-1.23400241e-08]]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -13666,36 +13668,36 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>[[-4.83879051e+06]
- [-1.29983156e+07]
- [-1.38909726e+07]
- [ 2.91309830e+06]
- [ 2.91333412e+06]
- [ 2.91357097e+06]
- [ 2.91366009e+06]
- [ 2.91391118e+06]
- [ 2.91417673e+06]
- [ 2.91348167e+06]
- [ 2.91362047e+06]
- [ 2.91377170e+06]
- [ 2.91364890e+06]
- [ 2.91343919e+06]
- [ 2.91351353e+06]
- [ 2.91271923e+06]
- [ 2.91273713e+06]
- [ 2.91275482e+06]
- [ 2.91698804e+06]
- [ 2.91783693e+06]
- [ 2.91859225e+06]
- [ 2.91766132e+06]
- [ 2.91878905e+06]
- [ 2.91967842e+06]
- [ 2.91383041e+06]
- [ 2.91401684e+06]
- [ 2.91414976e+06]
- [ 2.91363610e+06]
- [ 2.91344016e+06]
- [ 1.19819921e+03]]</t>
+          <t>[[-7.74870854e+06]
+ [-1.55807904e+07]
+ [-1.27434325e+07]
+ [ 2.91382764e+06]
+ [ 2.91451421e+06]
+ [ 2.91518742e+06]
+ [ 2.91585745e+06]
+ [ 2.91653994e+06]
+ [ 2.91725939e+06]
+ [ 2.91408919e+06]
+ [ 2.91422591e+06]
+ [ 2.91437303e+06]
+ [ 2.91415975e+06]
+ [ 2.91395663e+06]
+ [ 2.91403152e+06]
+ [ 2.91294453e+06]
+ [ 2.91296255e+06]
+ [ 2.91298034e+06]
+ [ 2.91799034e+06]
+ [ 2.91884038e+06]
+ [ 2.91959679e+06]
+ [ 2.91779396e+06]
+ [ 2.91891874e+06]
+ [ 2.91980538e+06]
+ [ 2.91375433e+06]
+ [ 2.91393971e+06]
+ [ 2.91407187e+06]
+ [ 2.91349522e+06]
+ [ 2.91331848e+06]
+ [ 1.09655230e+03]]</t>
         </is>
       </c>
       <c r="E528" t="inlineStr"/>
@@ -13718,36 +13720,36 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>[[ -205.57487605]
- [ -880.36942023]
- [-2345.02353043]
- [-3355.06277995]
- [-3355.04378377]
- [-3355.01736593]
- [-3354.99114107]
- [-3354.94790047]
- [-3354.89465913]
- [-3354.93149676]
- [-3354.89796193]
- [-3354.85932523]
- [-3354.85331215]
- [-3354.86115566]
- [-3354.82904068]
- [-3354.94903518]
- [-3354.94029345]
- [-3354.93130987]
- [-3353.96257664]
- [-3353.3836007 ]
- [-3352.71498822]
- [-3352.32034303]
- [-3350.50717986]
- [-3348.42702051]
- [-3352.99120687]
- [-3352.07119309]
- [-3351.09344541]
- [-3351.27221174]
- [-3350.5697961 ]
- [    4.43257382]]</t>
+          <t>[[  530.300898  ]
+ [  642.21537488]
+ [ -909.58811166]
+ [-3355.25747086]
+ [-3355.27218137]
+ [-3355.25579311]
+ [-3355.20767403]
+ [-3355.12623704]
+ [-3355.00813913]
+ [-3355.01262507]
+ [-3354.98324904]
+ [-3354.95000488]
+ [-3354.93599437]
+ [-3354.9237232 ]
+ [-3354.89157603]
+ [-3354.97982541]
+ [-3354.97107806]
+ [-3354.96208676]
+ [-3354.17860372]
+ [-3353.60155081]
+ [-3352.9335658 ]
+ [-3352.66948044]
+ [-3350.86155105]
+ [-3348.78636215]
+ [-3353.16388489]
+ [-3352.2469451 ]
+ [-3351.27211678]
+ [-3351.57563175]
+ [-3350.83179871]
+ [    4.21368876]]</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
@@ -13770,36 +13772,36 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>[[ 2.39285715e+02]
- [-4.20192835e+03]
- [-2.66433644e+04]
- [-4.49590930e+04]
- [-6.17280842e+04]
- [-7.84924681e+04]
- [-9.52514673e+04]
- [-1.12003778e+05]
- [-1.28749002e+05]
- [-1.39908698e+05]
- [-1.51064773e+05]
- [-1.62217285e+05]
- [-1.73366308e+05]
- [-1.84511329e+05]
- [-1.95652228e+05]
- [-2.01221395e+05]
- [-2.06789462e+05]
- [-2.12356439e+05]
- [-2.52632602e+05]
- [-2.92833330e+05]
- [-3.32972920e+05]
- [-3.90129339e+05]
- [-4.46980621e+05]
- [-5.03604071e+05]
- [-5.37433541e+05]
- [-5.70939869e+05]
- [-6.04136789e+05]
- [-6.34785495e+05]
- [-6.64881249e+05]
- [-1.11915576e-04]]</t>
+          <t>[[ 1.09329108e+04]
+ [ 3.22131609e+04]
+ [ 3.54993456e+04]
+ [ 1.25656102e+04]
+ [-1.54387551e+04]
+ [-4.34360955e+04]
+ [-7.14207059e+04]
+ [-9.93884943e+04]
+ [-1.27337041e+05]
+ [-1.38511160e+05]
+ [-1.49681882e+05]
+ [-1.60849204e+05]
+ [-1.72013199e+05]
+ [-1.83173468e+05]
+ [-1.94330039e+05]
+ [-1.99907165e+05]
+ [-2.05483312e+05]
+ [-2.11058496e+05]
+ [-2.51396615e+05]
+ [-2.91665896e+05]
+ [-3.31882375e+05]
+ [-3.89165168e+05]
+ [-4.46159838e+05]
+ [-5.02947320e+05]
+ [-5.36887400e+05]
+ [-5.70519726e+05]
+ [-6.03858995e+05]
+ [-6.34647393e+05]
+ [-6.64877029e+05]
+ [-1.06415769e-04]]</t>
         </is>
       </c>
       <c r="E530" t="inlineStr"/>
@@ -13822,36 +13824,36 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[[ 4.65409225e+07]
- [ 2.39603927e+08]
- [ 4.93459380e+08]
- [ 5.51347599e+08]
- [ 5.36517034e+08]
- [ 5.21657221e+08]
- [ 5.06771650e+08]
- [ 4.91862848e+08]
- [ 4.76936687e+08]
- [ 4.66981022e+08]
- [ 4.57020126e+08]
- [ 4.47055847e+08]
- [ 4.37089460e+08]
- [ 4.27120074e+08]
- [ 4.17147587e+08]
- [ 4.12161747e+08]
- [ 4.07175268e+08]
- [ 4.02188288e+08]
- [ 3.66026951e+08]
- [ 3.29838102e+08]
- [ 2.93675863e+08]
- [ 2.42011753e+08]
- [ 1.90294823e+08]
- [ 1.38648729e+08]
- [ 1.07733112e+08]
- [ 7.67828097e+07]
- [ 4.58247600e+07]
- [ 1.69393293e+07]
- [-1.19304958e+07]
- [ 3.02528372e-02]]</t>
+          <t>[[ 9.38515229e+07]
+ [ 3.41628800e+08]
+ [ 5.72830489e+08]
+ [ 6.01793530e+08]
+ [ 5.76940324e+08]
+ [ 5.51989258e+08]
+ [ 5.26968151e+08]
+ [ 5.01903977e+08]
+ [ 4.76823172e+08]
+ [ 4.66802689e+08]
+ [ 4.56783535e+08]
+ [ 4.46767149e+08]
+ [ 4.36754663e+08]
+ [ 4.26744511e+08]
+ [ 4.16736586e+08]
+ [ 4.11735437e+08]
+ [ 4.06734844e+08]
+ [ 4.01734940e+08]
+ [ 3.65494647e+08]
+ [ 3.29267707e+08]
+ [ 2.93106694e+08]
+ [ 2.41499081e+08]
+ [ 1.89861168e+08]
+ [ 1.38312620e+08]
+ [ 1.07464087e+08]
+ [ 7.65831978e+07]
+ [ 4.56957410e+07]
+ [ 1.68751703e+07]
+ [-1.19324552e+07]
+ [ 2.76935206e-02]]</t>
         </is>
       </c>
       <c r="E531" t="inlineStr"/>
@@ -13874,35 +13876,35 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>[[1088059.83940708]
- [2368885.78641621]
- [4069412.29915189]
- [6490274.94327118]
- [6490241.6142683 ]
- [6490208.16756958]
- [6490238.8692266 ]
- [6490204.49494568]
- [6490169.50808973]
- [6490190.00902438]
- [6490165.16451033]
- [6490139.65496933]
- [6490161.44436534]
- [6490137.36641372]
- [6490116.49764749]
- [6490133.41649313]
- [6490122.98210603]
- [6490112.54775241]
- [6490207.30530626]
- [6490131.57475526]
- [6490055.66672729]
- [6490381.54250041]
- [6490272.41764896]
- [6490163.21358986]
- [6490949.43721324]
- [6490882.25122934]
- [6490814.98117257]
- [6491091.62342394]
- [6491270.61579512]
+          <t>[[1289024.68199321]
+ [2703990.37622579]
+ [4383165.17669898]
+ [6490369.6562311 ]
+ [6490316.34914177]
+ [6490262.8756256 ]
+ [6490209.04167321]
+ [6490154.59327916]
+ [6490099.17092397]
+ [6490099.98019947]
+ [6490076.35130683]
+ [6490052.24531017]
+ [6490078.04280445]
+ [6490054.8858834 ]
+ [6490034.01764767]
+ [6490052.98938775]
+ [6490042.55525931]
+ [6490032.12116441]
+ [6490142.92820285]
+ [6490067.23065334]
+ [6489991.39195127]
+ [6490331.52527934]
+ [6490222.53039245]
+ [6490113.4654945 ]
+ [6490883.12183292]
+ [6490816.07162849]
+ [6490748.94214876]
+ [6491091.64513279]
+ [6491270.71698807]
  [      0.        ]]</t>
         </is>
       </c>
@@ -13926,24 +13928,24 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>[[-11053123.39952191]
- [ 18769506.57359399]
- [ 57788944.13934543]
- [ 35571740.46480677]
- [ 34804476.33035353]
- [ 34037873.47205918]
- [ 36669677.81074791]
- [ 35792095.42711459]
- [ 34923263.7608252 ]
- [ 37670608.22503409]
- [ 37024956.99686519]
- [ 36388848.96232511]
- [ 38794026.4889235 ]
- [ 38007461.58129988]
- [ 37220572.84976169]
- [ 39416661.69784802]
- [ 38986278.73089907]
- [ 38555839.7687217 ]]</t>
+          <t>[[-6631319.03403936]
+ [14702453.89267603]
+ [34670844.1674799 ]
+ [28969754.43622486]
+ [28052601.51471691]
+ [27133679.29013215]
+ [26217849.24811523]
+ [25311208.58094752]
+ [24421846.25273847]
+ [26868966.46248229]
+ [26455337.48956782]
+ [26048865.1544106 ]
+ [28326742.16740911]
+ [27798116.66063091]
+ [27269665.48630986]
+ [29355333.45813636]
+ [29056922.75634476]
+ [28758570.78694093]]</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -13966,24 +13968,24 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[[3227212.81196062]
- [8627490.31510074]
- [9335711.48956428]
- [1236106.56465787]
- [1236184.47784484]
- [1236262.73561227]
- [1369051.55692802]
- [1369143.55257081]
- [1369240.90913528]
- [1506971.57501369]
- [1507027.31780748]
- [1507088.12466604]
- [1641675.58893303]
- [1641580.57616342]
- [1641612.72097195]
- [1760353.9146018 ]
- [1760361.92009861]
- [1760369.8216219 ]]</t>
+          <t>[[2784450.49305844]
+ [5603512.40689866]
+ [4673213.92885275]
+ [ 977015.54695713]
+ [ 977195.75524128]
+ [ 977372.41829234]
+ [ 977548.22691786]
+ [ 977727.31842501]
+ [ 977916.16985356]
+ [1097781.46230378]
+ [1097821.37136189]
+ [1097864.3630027 ]
+ [1220213.59509423]
+ [1220145.34424777]
+ [1220169.35575978]
+ [1330704.09656961]
+ [1330710.17239999]
+ [1330716.16899366]]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
@@ -14008,17 +14010,17 @@
         <is>
           <t>[[       -0.        ]
  [       -0.        ]
- [-12516624.47260204]
- [-12005700.42149315]
- [-10446197.81707273]
- [ -8899804.34972365]
- [ -8185298.95004129]
- [ -6502846.42570217]
- [ -4843610.86980284]
- [ -3841464.23531429]
- [ -2658438.17564395]
- [ -1495694.59855187]
- [  -502100.18953789]
+ [ -9952583.66114341]
+ [-13825183.41571204]
+ [-11784078.96258516]
+ [ -9755735.19582558]
+ [ -7743816.25957032]
+ [ -5754617.69737654]
+ [ -3798249.91283629]
+ [ -2765290.58347101]
+ [ -1913907.32334575]
+ [ -1076020.97255456]
+ [  -368576.69701149]
  [       -0.        ]
  [       -0.        ]
  [       -0.        ]
@@ -14082,24 +14084,24 @@
       <c r="C537" t="inlineStr"/>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[[0.06300771]
- [0.12204404]
- [0.3405229 ]
- [0.2182733 ]
- [0.20903823]
- [0.19996973]
- [0.21081366]
- [0.2010304 ]
- [0.19154766]
- [0.20254487]
- [0.19590772]
- [0.18949346]
- [0.19915889]
- [0.19388256]
- [0.1898911 ]
- [0.20110984]
- [0.1989271 ]
- [0.19674422]]</t>
+          <t>[[0.04171115]
+ [0.08961713]
+ [0.21046127]
+ [0.19261761]
+ [0.18051542]
+ [0.16863746]
+ [0.15705729]
+ [0.14587216]
+ [0.13520998]
+ [0.14455409]
+ [0.14003428]
+ [0.1356746 ]
+ [0.14544137]
+ [0.14181588]
+ [0.13913557]
+ [0.14978888]
+ [0.14827559]
+ [0.14676269]]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr"/>
@@ -14118,24 +14120,24 @@
       <c r="C538" t="inlineStr"/>
       <c r="D538" t="inlineStr">
         <is>
-          <t>[[0.08604703]
- [0.11086277]
- [0.23783215]
- [0.04833042]
- [0.04322076]
- [0.03830293]
- [0.04034476]
- [0.03513366]
- [0.03045913]
- [0.02835473]
- [0.02666074]
- [0.02540296]
- [0.02765908]
- [0.02694791]
- [0.02606302]
- [0.02648163]
- [0.02605439]
- [0.0256284 ]]</t>
+          <t>[[0.05592492]
+ [0.06257148]
+ [0.08961572]
+ [0.06022504]
+ [0.05234298]
+ [0.04465231]
+ [0.03724373]
+ [0.03027916]
+ [0.02405148]
+ [0.02072724]
+ [0.01982301]
+ [0.01941312]
+ [0.02172034]
+ [0.02135097]
+ [0.02049308]
+ [0.02178318]
+ [0.02135881]
+ [0.0209357 ]]</t>
         </is>
       </c>
       <c r="E538" t="inlineStr"/>
@@ -14154,24 +14156,24 @@
       <c r="C539" t="inlineStr"/>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[[0.11957757]
- [0.24111337]
- [0.40158151]
- [0.22693598]
- [0.21980204]
- [0.21264822]
- [0.22728607]
- [0.21950645]
- [0.21167357]
- [0.22696783]
- [0.22127265]
- [0.2155284 ]
- [0.22850559]
- [0.22274649]
- [0.21698895]
- [0.22946401]
- [0.22642661]
- [0.22338976]]</t>
+          <t>[[0.11320143]
+ [0.2011302 ]
+ [0.28256245]
+ [0.21814633]
+ [0.2074144 ]
+ [0.19664838]
+ [0.18583858]
+ [0.17496787]
+ [0.16400765]
+ [0.17894138]
+ [0.17413401]
+ [0.16929158]
+ [0.18264365]
+ [0.17772957]
+ [0.1728198 ]
+ [0.18559347]
+ [0.18298587]
+ [0.18037949]]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr"/>
@@ -14194,36 +14196,36 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[[-1.10531234e+07]
- [ 1.87695066e+07]
- [ 5.77889441e+07]
- [ 3.55717405e+07]
- [ 3.48044763e+07]
- [ 3.40378735e+07]
- [ 3.66696778e+07]
- [ 3.57920954e+07]
- [ 3.49232638e+07]
- [ 3.76706082e+07]
- [ 3.70249570e+07]
- [ 3.63888490e+07]
- [ 3.87940265e+07]
- [ 3.80074616e+07]
- [ 3.72205728e+07]
- [ 3.94166617e+07]
- [ 3.89862787e+07]
- [ 3.85558398e+07]
- [ 4.42308878e+07]
- [ 4.01130013e+07]
- [ 3.59993242e+07]
- [ 5.81371618e+07]
- [ 4.52270597e+07]
- [ 3.23375162e+07]
- [ 6.87024012e+07]
- [ 4.51998822e+07]
- [ 2.16928335e+07]
- [ 7.04174391e+05]
- [-2.21430616e+06]
- [ 6.46580293e-02]]</t>
+          <t>[[-6.63131903e+06]
+ [ 1.47024539e+07]
+ [ 3.46708442e+07]
+ [ 2.89697544e+07]
+ [ 2.80526015e+07]
+ [ 2.71336793e+07]
+ [ 2.62178492e+07]
+ [ 2.53112086e+07]
+ [ 2.44218463e+07]
+ [ 2.68689665e+07]
+ [ 2.64553375e+07]
+ [ 2.60488652e+07]
+ [ 2.83267422e+07]
+ [ 2.77981167e+07]
+ [ 2.72696655e+07]
+ [ 2.93553335e+07]
+ [ 2.90569228e+07]
+ [ 2.87585708e+07]
+ [ 3.48001947e+07]
+ [ 3.16814789e+07]
+ [ 2.85705231e+07]
+ [ 5.12833382e+07]
+ [ 3.99589391e+07]
+ [ 2.86573768e+07]
+ [ 6.45686130e+07]
+ [ 4.24783183e+07]
+ [ 2.03846254e+07]
+ [ 6.34825061e+05]
+ [-2.21035902e+06]
+ [ 5.92031420e-02]]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr"/>
@@ -14246,36 +14248,36 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>[[3.22721281e+06]
- [8.62749032e+06]
- [9.33571149e+06]
- [1.23610656e+06]
- [1.23618448e+06]
- [1.23626274e+06]
- [1.36905156e+06]
- [1.36914355e+06]
- [1.36924091e+06]
- [1.50697158e+06]
- [1.50702732e+06]
- [1.50708812e+06]
- [1.64167559e+06]
- [1.64158058e+06]
- [1.64161272e+06]
- [1.76035391e+06]
- [1.76036192e+06]
- [1.76036982e+06]
- [2.20591552e+06]
- [2.20642053e+06]
- [2.20686929e+06]
- [4.39642840e+06]
- [4.39776720e+06]
- [4.39881983e+06]
- [1.26023057e+07]
- [1.26029224e+07]
- [1.26033545e+07]
- [1.65329805e+07]
- [1.99797766e+07]
- [7.48665544e+03]]</t>
+          <t>[[2.78445049e+06]
+ [5.60351241e+06]
+ [4.67321393e+06]
+ [9.77015547e+05]
+ [9.77195755e+05]
+ [9.77372418e+05]
+ [9.77548227e+05]
+ [9.77727318e+05]
+ [9.77916170e+05]
+ [1.09778146e+06]
+ [1.09782137e+06]
+ [1.09786436e+06]
+ [1.22021360e+06]
+ [1.22014534e+06]
+ [1.22016936e+06]
+ [1.33070410e+06]
+ [1.33071017e+06]
+ [1.33071617e+06]
+ [1.75950192e+06]
+ [1.75990469e+06]
+ [1.76026263e+06]
+ [3.90839935e+06]
+ [3.90958602e+06]
+ [3.91051860e+06]
+ [1.18940627e+07]
+ [1.18946413e+07]
+ [1.18950467e+07]
+ [1.65327663e+07]
+ [1.99807622e+07]
+ [6.85242377e+03]]</t>
         </is>
       </c>
       <c r="E541" t="inlineStr"/>
@@ -14300,34 +14302,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.25166245e+07]
- [-1.20057004e+07]
- [-1.04461978e+07]
- [-8.89980435e+06]
- [-8.18529895e+06]
- [-6.50284643e+06]
- [-4.84361087e+06]
- [-3.84146424e+06]
- [-2.65843818e+06]
- [-1.49569460e+06]
- [-5.02100190e+05]
+ [-9.95258366e+06]
+ [-1.38251834e+07]
+ [-1.17840790e+07]
+ [-9.75573520e+06]
+ [-7.74381626e+06]
+ [-5.75461770e+06]
+ [-3.79824991e+06]
+ [-2.76529058e+06]
+ [-1.91390732e+06]
+ [-1.07602097e+06]
+ [-3.68576697e+05]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
- [-2.98158424e+03]
- [-8.06878218e+03]
- [-9.03922005e+03]
- [-9.75342863e+03]
- [-2.09733263e+04]
- [-2.23046287e+04]
- [-2.34209814e+04]
- [-6.98907010e+04]
- [-7.14430896e+04]
- [-7.28952833e+04]
- [-8.36423297e+04]
- [-7.28446078e+04]
- [-6.16101284e+04]]</t>
+ [-2.23711650e+03]
+ [-6.40447579e+03]
+ [-7.17474641e+03]
+ [-7.74163884e+03]
+ [-1.86234906e+04]
+ [-1.98056348e+04]
+ [-2.07969122e+04]
+ [-6.59521011e+04]
+ [-6.74170069e+04]
+ [-6.87873640e+04]
+ [-8.36411161e+04]
+ [-7.28402935e+04]
+ [-6.16026204e+04]]</t>
         </is>
       </c>
       <c r="E542" t="inlineStr"/>
@@ -14398,36 +14400,36 @@
       <c r="C544" t="inlineStr"/>
       <c r="D544" t="inlineStr">
         <is>
-          <t>[[6.30077106e-02]
- [1.22044043e-01]
- [3.40522898e-01]
- [2.18273302e-01]
- [2.09038235e-01]
- [1.99969730e-01]
- [2.10813665e-01]
- [2.01030399e-01]
- [1.91547663e-01]
- [2.02544874e-01]
- [1.95907717e-01]
- [1.89493465e-01]
- [1.99158888e-01]
- [1.93882559e-01]
- [1.89891101e-01]
- [2.01109837e-01]
- [1.98927095e-01]
- [1.96751777e-01]
- [2.25858955e-01]
- [2.04999957e-01]
- [1.84181083e-01]
- [2.98320188e-01]
- [2.33364221e-01]
- [1.69061671e-01]
- [3.66870824e-01]
- [2.55503229e-01]
- [1.56683156e-01]
- [1.45719782e-01]
- [1.76387720e-01]
- [3.20274796e-04]]</t>
+          <t>[[4.17111469e-02]
+ [8.96171318e-02]
+ [2.10461268e-01]
+ [1.92617608e-01]
+ [1.80515422e-01]
+ [1.68637456e-01]
+ [1.57057286e-01]
+ [1.45872156e-01]
+ [1.35209975e-01]
+ [1.44554090e-01]
+ [1.40034279e-01]
+ [1.35674599e-01]
+ [1.45441372e-01]
+ [1.41815877e-01]
+ [1.39135570e-01]
+ [1.49788881e-01]
+ [1.48275588e-01]
+ [1.46768362e-01]
+ [1.77720819e-01]
+ [1.61924726e-01]
+ [1.46181784e-01]
+ [2.63186121e-01]
+ [2.06217162e-01]
+ [1.49846762e-01]
+ [3.44930717e-01]
+ [2.40313517e-01]
+ [1.47558246e-01]
+ [1.45709135e-01]
+ [1.76395128e-01]
+ [3.19133193e-04]]</t>
         </is>
       </c>
       <c r="E544" t="inlineStr"/>
@@ -14446,36 +14448,36 @@
       <c r="C545" t="inlineStr"/>
       <c r="D545" t="inlineStr">
         <is>
-          <t>[[0.08604703]
- [0.11086277]
- [0.23783215]
- [0.04833042]
- [0.04322076]
- [0.03830293]
- [0.04034476]
- [0.03513366]
- [0.03045913]
- [0.02835473]
- [0.02666074]
- [0.02540296]
- [0.02765908]
- [0.02694791]
- [0.02606302]
- [0.02648163]
- [0.02605439]
- [0.02562425]
- [0.03625347]
- [0.03290329]
- [0.02964574]
- [0.09809178]
- [0.09143975]
- [0.08497902]
- [0.68060124]
- [0.66817434]
- [0.65572742]
- [0.97838707]
+          <t>[[0.05592492]
+ [0.06257148]
+ [0.08961572]
+ [0.06022504]
+ [0.05234298]
+ [0.04465231]
+ [0.03724373]
+ [0.03027916]
+ [0.02405148]
+ [0.02072724]
+ [0.01982301]
+ [0.01941312]
+ [0.02172034]
+ [0.02135097]
+ [0.02049308]
+ [0.02178318]
+ [0.02135881]
+ [0.02093236]
+ [0.02802968]
+ [0.0248607 ]
+ [0.02179561]
+ [0.08012767]
+ [0.07393516]
+ [0.06798002]
+ [0.59883278]
+ [0.58731105]
+ [0.5757754 ]
+ [0.97837133]
  [1.        ]
- [0.01042148]]</t>
+ [0.01040072]]</t>
         </is>
       </c>
       <c r="E545" t="inlineStr"/>
@@ -14494,36 +14496,36 @@
       <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr">
         <is>
-          <t>[[3.31368310e-01]
- [5.46474244e-01]
- [8.27602990e-01]
- [4.35402258e-01]
- [4.19497503e-01]
- [4.03602374e-01]
- [4.31295044e-01]
- [4.14179585e-01]
- [3.96956936e-01]
- [4.25841826e-01]
- [4.13352268e-01]
- [4.00727599e-01]
- [4.24881617e-01]
- [4.12873556e-01]
- [4.00905097e-01]
- [4.24634993e-01]
- [4.18373040e-01]
- [4.12121832e-01]
- [4.60691625e-01]
- [4.08241374e-01]
- [3.56514727e-01]
- [6.03775281e-01]
- [4.77118276e-01]
- [3.53418603e-01]
- [8.94287963e-01]
- [6.90386894e-01]
- [4.89862287e-01]
- [4.58797737e-01]
- [6.37095943e-01]
- [4.22737880e-10]]</t>
+          <t>[[3.00646909e-01]
+ [3.87948417e-01]
+ [4.66257538e-01]
+ [3.42247955e-01]
+ [3.21632533e-01]
+ [3.01040579e-01]
+ [2.80416568e-01]
+ [2.59680171e-01]
+ [2.38712369e-01]
+ [2.59583745e-01]
+ [2.50528116e-01]
+ [2.41361092e-01]
+ [2.59481810e-01]
+ [2.50884754e-01]
+ [2.42312737e-01]
+ [2.60236261e-01]
+ [2.55784240e-01]
+ [2.51339023e-01]
+ [2.91601052e-01]
+ [2.54904477e-01]
+ [2.18667412e-01]
+ [4.13447148e-01]
+ [3.28072633e-01]
+ [2.44717488e-01]
+ [6.72267115e-01]
+ [5.39339724e-01]
+ [4.08916011e-01]
+ [4.64213390e-01]
+ [6.71213503e-01]
+ [2.47394145e-10]]</t>
         </is>
       </c>
       <c r="E546" t="inlineStr"/>
@@ -14546,7 +14548,7 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>[-70.]</t>
+          <t>[-90.]</t>
         </is>
       </c>
       <c r="E547" t="inlineStr"/>
@@ -14654,9 +14656,9 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>[ 927.99815941 1070.12742489 1170.96499657 1251.15492825 1344.74637368
- 1422.65663273 1490.05546078 1526.70959183 1561.06149956 1593.43543743
- 1387.34045863 1189.05983895  992.78218561]</t>
+          <t>[ 927.99815941 1070.12742489 1170.96499657 1251.15492825 1344.74637369
+ 1422.65663273 1490.05546078 1526.70959183 1561.06149957 1593.43543744
+ 1387.28433325 1188.95291972  992.62302317]</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -14775,9 +14777,9 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>[ 927.99815941 1070.12742489 1170.96499657 1251.15492825 1344.74637368
- 1422.65663273 1490.05546078 1526.70959183 1561.06149956 1593.43543743
- 1387.34045863 1189.05983895  992.78218561]</t>
+          <t>[ 927.99815941 1070.12742489 1170.96499657 1251.15492825 1344.74637369
+ 1422.65663273 1490.05546078 1526.70959183 1561.06149957 1593.43543744
+ 1387.28433325 1188.95291972  992.62302317]</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
@@ -14966,9 +14968,9 @@
       <c r="D564" t="inlineStr">
         <is>
           <t>[ -927.99815941 -1070.12742489 -1170.96499657 -1251.15492825
- -1344.74637368 -1422.65663273 -1490.05546078 -1526.70959183
- -1561.06149956 -1593.43543743 -1387.34045863 -1189.05983895
-  -992.78218561]</t>
+ -1344.74637369 -1422.65663273 -1490.05546078 -1526.70959183
+ -1561.06149957 -1593.43543744 -1387.28433325 -1188.95291972
+  -992.62302317]</t>
         </is>
       </c>
       <c r="E564" t="inlineStr"/>
@@ -15012,7 +15014,7 @@
       <c r="C566" t="inlineStr"/>
       <c r="D566" t="inlineStr">
         <is>
-          <t>[114.11778831 228.44167748 657.47056125 634.99683234]</t>
+          <t>[ 90.78556123 202.95928259 620.47601336 634.95928351]</t>
         </is>
       </c>
       <c r="E566" t="inlineStr"/>
@@ -15031,7 +15033,7 @@
       <c r="C567" t="inlineStr"/>
       <c r="D567" t="inlineStr">
         <is>
-          <t>[1.  1.  1.  0.6]</t>
+          <t>[1.     1.     1.     0.5999]</t>
         </is>
       </c>
       <c r="E567" t="inlineStr"/>
@@ -15050,7 +15052,7 @@
       <c r="C568" t="inlineStr"/>
       <c r="D568" t="inlineStr">
         <is>
-          <t>[1.  1.  1.  0.6]</t>
+          <t>[1.     1.     1.     0.5999]</t>
         </is>
       </c>
       <c r="E568" t="inlineStr"/>
@@ -15069,7 +15071,7 @@
       <c r="C569" t="inlineStr"/>
       <c r="D569" t="inlineStr">
         <is>
-          <t>[0.4995489  0.34745537 0.8283135 ]</t>
+          <t>[0.44730923 0.32710254 0.78170333]</t>
         </is>
       </c>
       <c r="E569" t="inlineStr"/>
@@ -15113,8 +15115,8 @@
       <c r="D571" t="inlineStr">
         <is>
           <t>[5.         5.         5.         5.         5.         5.
- 5.         5.         5.         5.         4.33333333 3.66666667
- 3.        ]</t>
+ 5.         5.         5.         5.         4.33316667 3.66633333
+ 2.9995    ]</t>
         </is>
       </c>
       <c r="E571" t="inlineStr"/>
@@ -15366,8 +15368,8 @@
       <c r="D582" t="inlineStr">
         <is>
           <t>[10.         10.         10.         10.         10.         10.
- 10.         10.         10.         10.          8.66666667  7.33333333
-  6.        ]</t>
+ 10.         10.         10.         10.          8.66633333  7.33266667
+  5.999     ]</t>
         </is>
       </c>
       <c r="E582" t="inlineStr"/>
@@ -15620,7 +15622,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>[22774.68956986 11427.40505687  3981.9049132   2638.47022409]</t>
+          <t>[28562.82699427 12855.06373468  4218.93421765  2638.29618804]</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -15647,7 +15649,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>[279738.04581475 141597.45528107  49622.63169865  21041.38501753]</t>
+          <t>[349256.51004583 159112.64497767  52566.9638794   21037.36327146]</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -15674,7 +15676,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>[279738.04581475 141597.45528107  49622.63169865  21041.38501753]</t>
+          <t>[349256.51004583 159112.64497767  52566.9638794   21037.36327146]</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -15701,7 +15703,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>[6.70352374e+12 3.39318129e+12 1.18913567e+12 5.04226816e+11]</t>
+          <t>[8.36943470e+12 3.81290786e+12 1.25969240e+12 5.04130440e+11]</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -15728,7 +15730,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>[6.70352374e+12 3.39318129e+12 1.18913567e+12 5.04226816e+11]</t>
+          <t>[8.36943470e+12 3.81290786e+12 1.25969240e+12 5.04130440e+11]</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -15755,7 +15757,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>[5.31589433e+12 2.69079276e+12 9.42984590e+11 3.99851865e+11]</t>
+          <t>[6.63696172e+12 3.02363593e+12 9.98936074e+11 3.99775439e+11]</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -15782,7 +15784,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>[5.45762990e+11 2.73841482e+11 9.54206785e+10 6.32271801e+10]</t>
+          <t>[6.84467457e+11 3.08053289e+11 1.01100748e+11 6.32230095e+10]</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -15890,10 +15892,10 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.36645944 0.14917528 0.14917528 0.        ]
- [0.         0.         0.73034954 0.29470869 0.29470869 0.        ]
- [0.         0.         2.09598174 0.84094693 0.84094693 0.        ]
- [0.         0.         3.16319658 1.58658757 1.58658757 0.        ]]</t>
+          <t>[[0.         0.         0.29219797 0.11948238 0.11948238 0.        ]
+ [0.         0.         0.64923832 0.26226702 0.26226702 0.        ]
+ [0.         0.         1.97822473 0.79384459 0.79384459 0.        ]
+ [0.         0.         3.16340525 1.5867917  1.5867917  0.        ]]</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -15916,10 +15918,10 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>[[0.60113188 0.60113188 0.         0.         0.         0.07458764]
- [1.2004846  1.2004846  0.         0.         0.         0.14735434]
- [3.44960965 3.44960965 0.         0.         0.         0.42047347]
- [5.20592951 5.20592951 0.         0.         0.         0.79329379]]</t>
+          <t>[[0.4788013  0.4788013  0.         0.         0.         0.05974119]
+ [1.06689396 1.06689396 0.         0.         0.         0.13113351]
+ [3.25567191 3.25567191 0.         0.         0.         0.3969223 ]
+ [5.2062727  5.2062727  0.         0.         0.         0.79339585]]</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -15942,7 +15944,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>[657.41925541]</t>
+          <t>[698.95347341]</t>
         </is>
       </c>
       <c r="E605" t="inlineStr"/>
@@ -15965,7 +15967,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>[4176499.19903658]</t>
+          <t>[4813643.7484258]</t>
         </is>
       </c>
       <c r="E606" t="inlineStr"/>
@@ -15989,7 +15991,7 @@
       <c r="D607" t="inlineStr">
         <is>
           <t>[10.         10.         10.         10.         10.         10.
- 10.         10.         10.          9.33333333  8.          6.66666667]</t>
+ 10.         10.         10.          9.33316667  7.9995      6.66583333]</t>
         </is>
       </c>
       <c r="E607" t="inlineStr"/>
@@ -16012,8 +16014,8 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>[0.09376277 0.09376277 0.09376277 0.04683909 0.04683909 0.04683909
- 0.01627449 0.01627449 0.01627449 0.01348038 0.01348038 0.01348038]</t>
+          <t>[0.11786015 0.11786015 0.11786015 0.05271993 0.05271993 0.05271993
+ 0.01724482 0.01724482 0.01724482 0.01348034 0.01348034 0.01348034]</t>
         </is>
       </c>
       <c r="E608" t="inlineStr"/>
@@ -16060,18 +16062,18 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>[[47632927.35063246]
- [43625820.63326149]
- [39606528.30311424]
- [65482229.66857921]
- [52753861.65810443]
- [40011127.91833997]
- [90790940.50731833]
- [67455593.50857231]
- [44092130.19960388]
- [31876382.12746336]
- [ 5016499.01973133]
- [ 2443353.95878273]]</t>
+          <t>[[37498934.12894311]
+ [34476319.3835042 ]
+ [31445767.14607535]
+ [57796285.62632318]
+ [46638452.64470141]
+ [35470147.75093077]
+ [85371753.59326924]
+ [63440164.27716921]
+ [41483197.02926213]
+ [31742077.42681685]
+ [ 4927616.01775691]
+ [ 2446879.35322186]]</t>
         </is>
       </c>
       <c r="E610" t="inlineStr"/>
@@ -16094,18 +16096,18 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>[[ 2203204.43423585]
- [ 2203734.44900072]
- [ 2204216.31151305]
- [ 4392708.29337647]
- [ 4394194.1814299 ]
- [ 4395396.64265184]
- [12600331.63259846]
- [12601109.32432819]
- [12601706.8099815 ]
- [16531598.95740731]
- [19978634.40726657]
- [25138395.34932041]]</t>
+          <t>[[ 1756863.00050893]
+ [ 1757285.7613325 ]
+ [ 1757670.00388896]
+ [ 3904749.81578603]
+ [ 3906066.62455944]
+ [ 3907131.98296008]
+ [11892101.19492672]
+ [11892831.3896612 ]
+ [11893392.2034064 ]
+ [16531371.73515787]
+ [19979610.15389322]
+ [25141852.20747008]]</t>
         </is>
       </c>
       <c r="E611" t="inlineStr"/>
@@ -16128,18 +16130,18 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>[[ -8068.78217704]
- [ -9039.22005253]
- [ -9753.42862973]
- [-20973.32629862]
- [-22304.62870576]
- [-23420.98143372]
- [-69890.70103697]
- [-71443.08961019]
- [-72895.28325151]
- [-83642.32970145]
- [-72844.60776371]
- [-61610.12843346]]</t>
+          <t>[[ -6404.47578631]
+ [ -7174.74640947]
+ [ -7741.63883992]
+ [-18623.49055687]
+ [-19805.63484121]
+ [-20796.91224714]
+ [-65952.10113675]
+ [-67417.00686346]
+ [-68787.36401384]
+ [-83641.11614574]
+ [-72840.29350033]
+ [-61602.62044983]]</t>
         </is>
       </c>
       <c r="E612" t="inlineStr"/>
@@ -16192,18 +16194,18 @@
       <c r="C614" t="inlineStr"/>
       <c r="D614" t="inlineStr">
         <is>
-          <t>[[0.24310344]
- [0.22279336]
- [0.20243525]
- [0.33539921]
- [0.27119127]
- [0.20724504]
- [0.47517866]
- [0.36083147]
- [0.2504387 ]
- [0.21812655]
- [0.17789615]
- [0.22184853]]</t>
+          <t>[[0.19139872]
+ [0.17607985]
+ [0.16073076]
+ [0.29606037]
+ [0.23978088]
+ [0.18374172]
+ [0.44690693]
+ [0.33946638]
+ [0.2357667 ]
+ [0.21761713]
+ [0.17783989]
+ [0.22187996]]</t>
         </is>
       </c>
       <c r="E614" t="inlineStr"/>
@@ -16222,18 +16224,18 @@
       <c r="C615" t="inlineStr"/>
       <c r="D615" t="inlineStr">
         <is>
-          <t>[[0.03624381]
- [0.03289119]
- [0.02963168]
- [0.09804401]
- [0.09138798]
- [0.08492443]
- [0.68041561]
- [0.6679832 ]
- [0.65553161]
- [0.97815885]
- [0.99987834]
- [1.04458872]]</t>
+          <t>[[0.02802212]
+ [0.02485104]
+ [0.02178409]
+ [0.08008669]
+ [0.07389048]
+ [0.06793269]
+ [0.59866685]
+ [0.58714032]
+ [0.57560061]
+ [0.97814256]
+ [0.99987798]
+ [1.04461967]]</t>
         </is>
       </c>
       <c r="E615" t="inlineStr"/>
@@ -16252,18 +16254,18 @@
       <c r="C616" t="inlineStr"/>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[[0.64710984]
- [0.5827668 ]
- [0.5186734 ]
- [0.87506875]
- [0.70897941]
- [0.54428106]
- [1.33992986]
- [1.0680057 ]
- [0.79749743]
- [0.78112595]
- [0.59437055]
- [0.77245624]]</t>
+          <t>[[0.4887692 ]
+ [0.43862075]
+ [0.38867506]
+ [0.72809559]
+ [0.58895997]
+ [0.45099153]
+ [1.17673507]
+ [0.93806787]
+ [0.70064277]
+ [0.73046743]
+ [0.56008753]
+ [0.72438265]]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -16379,7 +16381,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>[0.28631733]</t>
+          <t>[0.30517969]</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16402,7 +16404,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>[0.29019247]</t>
+          <t>[0.30966835]</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -16425,7 +16427,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>[0.28631733 0.29019247 0.87260028 1.04218863 1.23941309 2.67447866]</t>
+          <t>[0.30517969 0.30966835 0.88970009 1.05826698 1.25816613 2.69852221]</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16444,9 +16446,9 @@
       <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
-          <t>[[   0.74987969    0.62917023   -1.53849703    2.02496431   -0.86551721]
- [  22.00303607   39.65031358 -155.30106718  184.72547187  -90.07775434]
- [ -55.59192838  141.10686276 -267.42105562  347.22253669 -164.31641544]]</t>
+          <t>[[   0.64876998    0.79522176   -1.73126315    2.21367062   -0.92639921]
+ [  15.80288173   47.57639982 -161.33131893  190.85369121  -91.90165384]
+ [ -49.96631867  130.29430462 -266.47499714  354.72693472 -167.57992353]]</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16465,9 +16467,9 @@
       <c r="C625" t="inlineStr"/>
       <c r="D625" t="inlineStr">
         <is>
-          <t>[[   0.7435308     0.58372263   -1.39463504    1.84833318   -0.78095158]
- [   8.71727425   23.97814601  -84.32157898  101.81768431  -49.19152559]
- [ -53.78534698  132.55021819 -249.45470266  325.15693963 -153.4671082 ]]</t>
+          <t>[[   0.64400464    0.73439241   -1.54730587    1.98828902   -0.8193802 ]
+ [   6.2750867    27.79025721  -88.7922291   106.74657084  -51.01968565]
+ [ -48.36053102  122.15256996 -248.40184043  332.13225899 -156.5224575 ]]</t>
         </is>
       </c>
       <c r="E625" t="inlineStr"/>
@@ -16486,7 +16488,7 @@
       <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>[[  3.46514628 -13.47746066  24.78326831 -19.62364954   5.85269561]
+          <t>[[  2.85136986 -10.69220232  19.30332716 -14.72041899   4.25792428]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -16511,7 +16513,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>[0.29019247 1.23941309 2.73613184]</t>
+          <t>[0.30966835 1.25816613 2.75855964]</t>
         </is>
       </c>
       <c r="E627" t="inlineStr"/>
@@ -16534,7 +16536,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>[0.28631733 1.04218863 2.67447866]</t>
+          <t>[0.30517969 1.05826698 2.69852221]</t>
         </is>
       </c>
       <c r="E628" t="inlineStr"/>
@@ -16557,7 +16559,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>[4.92294663 0.         0.        ]</t>
+          <t>[5.06142516 0.         0.        ]</t>
         </is>
       </c>
       <c r="E629" t="inlineStr"/>
@@ -16581,18 +16583,18 @@
       <c r="D630" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.00447202]
- [0.01687677]
- [0.03649484]
- [0.08210877]
- [0.14973157]
- [0.23518022]
- [0.29840456]
- [0.37306015]
- [0.45655965]
- [0.54170236]
- [0.6332265 ]
- [0.72849045]]</t>
+ [0.00357433]
+ [0.01348984]
+ [0.02917078]
+ [0.06679795]
+ [0.12396672]
+ [0.19696177]
+ [0.25179925]
+ [0.31740106]
+ [0.39133044]
+ [0.46740738]
+ [0.54984917]
+ [0.63601792]]</t>
         </is>
       </c>
       <c r="E630" t="inlineStr"/>
@@ -16615,7 +16617,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>[0.72849045]</t>
+          <t>[0.63601792]</t>
         </is>
       </c>
       <c r="E631" t="inlineStr"/>
@@ -16638,18 +16640,18 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>[[-19855805.22214456]
- [-17146450.36786209]
- [-14436013.8180824 ]
- [-12481392.10729374]
- [-10525306.43362539]
- [ -8567980.37928525]
- [ -8148506.84719288]
- [ -7728669.64494576]
- [ -7308490.69228608]
- [ -7002668.11618473]
- [ -6740488.25257624]
- [ -6521904.15      ]]</t>
+          <t>[[-22022535.4027288 ]
+ [-18628007.14891645]
+ [-15232397.19960686]
+ [-13036347.24861636]
+ [-10838833.33474616]
+ [ -8640079.04020417]
+ [ -8196555.36306883]
+ [ -7752668.01577874]
+ [ -7308438.9180761 ]
+ [ -7002622.80661066]
+ [ -6740460.20729645]
+ [ -6521904.15000001]]</t>
         </is>
       </c>
       <c r="E632" t="inlineStr"/>
@@ -16672,18 +16674,18 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>[[2912478.03829295]
- [2913368.53671464]
- [2914178.93705956]
- [2914562.47195462]
- [2915812.74274206]
- [2916826.92895486]
- [2913258.22708132]
- [2913491.33492363]
- [2913672.20972743]
- [2913326.56412057]
- [2913220.88894128]
- [2913056.7863397 ]]</t>
+          <t>[[2912478.79843535]
+ [2913370.6000629 ]
+ [2914181.95803   ]
+ [2914373.23933591]
+ [2915620.01605977]
+ [2916631.11636058]
+ [2913151.91443432]
+ [2913383.84844164]
+ [2913563.76216433]
+ [2913182.77045337]
+ [2913097.32191625]
+ [2912953.53243773]]</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
@@ -16706,18 +16708,18 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>[[-3354.88893598]
- [-3354.38386618]
- [-3353.78631592]
- [-3353.18841994]
- [-3351.51659653]
- [-3349.57751608]
- [-3353.27663872]
- [-3352.40846164]
- [-3351.48145929]
- [-3351.6073467 ]
- [-3350.94237559]
- [-3349.92603547]]</t>
+          <t>[[-3354.88910535]
+ [-3354.38435394]
+ [-3353.78685491]
+ [-3353.31380004]
+ [-3351.64637093]
+ [-3349.71159726]
+ [-3353.38856026]
+ [-3352.52317067]
+ [-3351.5989786 ]
+ [-3351.85152706]
+ [-3351.15217662]
+ [-3350.10114952]]</t>
         </is>
       </c>
       <c r="E634" t="inlineStr"/>
@@ -16740,18 +16742,18 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>[[-221470.78969143]
- [-261848.62094561]
- [-302151.9461583 ]
- [-359529.84332457]
- [-416604.10808199]
- [-473441.98997403]
- [-507393.82815695]
- [-541037.23554212]
- [-574383.91305957]
- [-605185.53960487]
- [-635457.17759528]
- [-664796.34277224]]</t>
+          <t>[[-220569.01710922]
+ [-260960.98026422]
+ [-301290.53962435]
+ [-358727.69652   ]
+ [-415883.58731605]
+ [-472829.20904664]
+ [-506861.3305803 ]
+ [-540600.60749606]
+ [-574059.73519005]
+ [-604973.87609845]
+ [-635353.44478358]
+ [-664796.34308424]]</t>
         </is>
       </c>
       <c r="E635" t="inlineStr"/>
@@ -16774,18 +16776,18 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>[[ 3.90437156e+08]
- [ 3.55039347e+08]
- [ 3.19551463e+08]
- [ 2.68677842e+08]
- [ 2.17617159e+08]
- [ 1.66501129e+08]
- [ 1.35828584e+08]
- [ 1.05090417e+08]
- [ 7.43152430e+07]
- [ 4.55717933e+07]
- [ 1.68097204e+07]
- [-1.19535913e+07]]</t>
+          <t>[[ 3.89670771e+08]
+ [ 3.54300903e+08]
+ [ 3.18857295e+08]
+ [ 2.68068999e+08]
+ [ 2.17107072e+08]
+ [ 1.66099234e+08]
+ [ 1.35494596e+08]
+ [ 1.04827053e+08]
+ [ 7.41240683e+07]
+ [ 4.54468801e+07]
+ [ 1.67484116e+07]
+ [-1.19535914e+07]]</t>
         </is>
       </c>
       <c r="E636" t="inlineStr"/>
@@ -16808,18 +16810,18 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>[[6490207.57735054]
- [6490131.66754472]
- [6490055.71881812]
- [6490381.58589028]
- [6490272.37815749]
- [6490163.09230999]
- [6490948.89015255]
- [6490881.61871452]
- [6490814.29035048]
- [6491090.65903365]
- [6491269.6913665 ]
- [6491533.17061257]]</t>
+          <t>[[6490143.14508574]
+ [6490067.30460949]
+ [6489991.43345686]
+ [6490331.56378666]
+ [6490222.4952242 ]
+ [6490113.35762221]
+ [6490882.60532541]
+ [6490815.47446947]
+ [6490748.28995942]
+ [6491090.68045817]
+ [6491269.79225548]
+ [6491533.41446107]]</t>
         </is>
       </c>
       <c r="E637" t="inlineStr"/>
@@ -16844,7 +16846,7 @@
         <is>
           <t>[[ 2.91197623e+06]
  [-3.35507584e+03]
- [-2.25637083e+07]]</t>
+ [-2.54156119e+07]]</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
@@ -16867,8 +16869,8 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>[[-1.81007762e+05]
- [ 4.25688549e+08]
+          <t>[[-1.80102153e+05]
+ [ 4.24912101e+08]
  [ 6.48957511e+06]]</t>
         </is>
       </c>
@@ -16892,7 +16894,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>[2598852.87460076]</t>
+          <t>[2889675.75593395]</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
@@ -16915,7 +16917,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>[-2.44104757e+00 -3.15157206e-02  9.20912568e+01]</t>
+          <t>[-2.19537555e+00 -2.83439140e-02  8.59864222e+01]</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
@@ -16938,7 +16940,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>[3.19836691e+10 3.18392449e+10 2.92321712e+08 2.02613158e+02
+          <t>[3.24592083e+10 3.23147841e+10 2.99351652e+08 2.02613158e+02
  1.08611945e+07 1.44041114e+05]</t>
         </is>
       </c>
@@ -17540,7 +17542,7 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>direct_drive</t>
+          <t>geared</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
@@ -18447,7 +18449,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>[2.9]</t>
+          <t>[2.5244418]</t>
         </is>
       </c>
       <c r="E695" t="inlineStr"/>
@@ -18810,7 +18812,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>[40.]</t>
+          <t>[60.]</t>
         </is>
       </c>
       <c r="E710" t="inlineStr">
@@ -19470,7 +19472,7 @@
       <c r="C733" t="inlineStr"/>
       <c r="D733" t="inlineStr">
         <is>
-          <t>[0.         0.35294118 0.52941176 0.70588235 0.82352941 0.94117647
+          <t>[0.         0.28571429 0.52380952 0.76190476 0.85714286 0.95238095
  1.        ]</t>
         </is>
       </c>
@@ -19498,7 +19500,7 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>[85.]</t>
+          <t>[105.]</t>
         </is>
       </c>
       <c r="E734" t="inlineStr">
@@ -19525,7 +19527,7 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>[85.]</t>
+          <t>[105.]</t>
         </is>
       </c>
       <c r="E735" t="inlineStr">
@@ -19552,7 +19554,7 @@
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>[-70.]</t>
+          <t>[-90.]</t>
         </is>
       </c>
       <c r="E736" t="inlineStr">
@@ -19606,8 +19608,8 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>[[0.02982564 0.13219194 0.18251138 0.10121861 0.15617867 0.07984641
-  0.14002551]]</t>
+          <t>[[0.09991069 0.2        0.2        0.2        0.15519489 0.16376774
+  0.128205  ]]</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
@@ -19823,7 +19825,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>[10. 10. 10. 10.  6.]</t>
+          <t>[10.    10.    10.    10.     5.999]</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
@@ -19873,7 +19875,7 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>[[0.10376699 0.07149052 0.01605918 0.01436043 0.01083654]]</t>
+          <t>[[0.13889523 0.08140412 0.01713781 0.0150955  0.01010139]]</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">
